--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>0.7615678895872258</v>
       </c>
       <c r="C2">
-        <v>0.7051829511221135</v>
+        <v>0.7051829511221134</v>
       </c>
       <c r="D2">
         <v>0.8292272149608988</v>
@@ -408,7 +408,7 @@
         <v>0.787323629225039</v>
       </c>
       <c r="C3">
-        <v>0.7627066062642043</v>
+        <v>0.7627066062642042</v>
       </c>
       <c r="D3">
         <v>0.9083286243689509</v>
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
       <c r="C4">
-        <v>0.6776299896266021</v>
+        <v>0.677629989626602</v>
       </c>
       <c r="D4">
         <v>0.8473386943395462</v>
       </c>
       <c r="E4">
-        <v>0.8814848017607664</v>
+        <v>0.8814848017607666</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
       <c r="C5">
         <v>0.6776299896266021</v>
@@ -448,7 +448,7 @@
         <v>0.8473386943395462</v>
       </c>
       <c r="E5">
-        <v>0.8814848017607664</v>
+        <v>0.8814848017607665</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
       <c r="C6">
-        <v>0.6776299896266021</v>
+        <v>0.6776299896266019</v>
       </c>
       <c r="D6">
         <v>0.8473386943395462</v>
@@ -476,7 +476,7 @@
         <v>0.7014268022167574</v>
       </c>
       <c r="C7">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
       <c r="D7">
         <v>0.7786692142172513</v>
@@ -493,10 +493,10 @@
         <v>0.7014268022167574</v>
       </c>
       <c r="C8">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
       <c r="D8">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
       <c r="E8">
         <v>0.8164752152755256</v>
@@ -510,13 +510,13 @@
         <v>0.6287755089054369</v>
       </c>
       <c r="C9">
-        <v>0.5529529551383285</v>
+        <v>0.5529529551383284</v>
       </c>
       <c r="D9">
-        <v>0.6605206393442196</v>
+        <v>0.6605206393442197</v>
       </c>
       <c r="E9">
-        <v>0.7160609003331189</v>
+        <v>0.7160609003331188</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,10 +527,10 @@
         <v>0.7014268022167574</v>
       </c>
       <c r="C10">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
       <c r="D10">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
       <c r="E10">
         <v>0.8164752152755255</v>
@@ -544,10 +544,10 @@
         <v>0.7014268022167574</v>
       </c>
       <c r="C11">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
       <c r="D11">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
       <c r="E11">
         <v>0.8164752152755256</v>
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6732976186714824</v>
+        <v>0.6732976186714825</v>
       </c>
       <c r="C12">
-        <v>0.6512870994466364</v>
+        <v>0.6512870994466363</v>
       </c>
       <c r="D12">
-        <v>0.8168365088488877</v>
+        <v>0.8168365088488876</v>
       </c>
       <c r="E12">
-        <v>0.8681808967953211</v>
+        <v>0.8681808967953213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -584,7 +584,7 @@
         <v>0.9083286243689511</v>
       </c>
       <c r="E13">
-        <v>0.928846333391643</v>
+        <v>0.9288463333916428</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -592,13 +592,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6732976186714824</v>
+        <v>0.6732976186714825</v>
       </c>
       <c r="C14">
         <v>0.6512870994466363</v>
       </c>
       <c r="D14">
-        <v>0.8168365088488876</v>
+        <v>0.8168365088488875</v>
       </c>
       <c r="E14">
         <v>0.8681808967953213</v>
@@ -615,10 +615,10 @@
         <v>0.6429014790031972</v>
       </c>
       <c r="D15">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
       <c r="E15">
-        <v>0.8164752152755256</v>
+        <v>0.8164752152755255</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -635,7 +635,7 @@
         <v>0.7099902984609625</v>
       </c>
       <c r="E16">
-        <v>0.7511953001957833</v>
+        <v>0.7511953001957832</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -643,13 +643,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.6732976186714824</v>
+        <v>0.6732976186714825</v>
       </c>
       <c r="C17">
-        <v>0.6512870994466364</v>
+        <v>0.6512870994466363</v>
       </c>
       <c r="D17">
-        <v>0.8168365088488877</v>
+        <v>0.8168365088488876</v>
       </c>
       <c r="E17">
         <v>0.8681808967953213</v>
@@ -669,7 +669,7 @@
         <v>0.908328624368951</v>
       </c>
       <c r="E18">
-        <v>0.928846333391643</v>
+        <v>0.9288463333916429</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -686,7 +686,7 @@
         <v>0.7099902984609625</v>
       </c>
       <c r="E19">
-        <v>0.7511953001957833</v>
+        <v>0.7511953001957831</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -703,7 +703,7 @@
         <v>0.7099902984609625</v>
       </c>
       <c r="E20">
-        <v>0.7511953001957833</v>
+        <v>0.7511953001957831</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.8830008605244345</v>
+        <v>0.8830008605244344</v>
       </c>
       <c r="C22">
         <v>0.9085213649470287</v>
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.7615678895872259</v>
+        <v>0.7615678895872258</v>
       </c>
       <c r="C23">
-        <v>0.7051829511221135</v>
+        <v>0.7051829511221133</v>
       </c>
       <c r="D23">
         <v>0.8292272149608989</v>
       </c>
       <c r="E23">
-        <v>0.8664745388855953</v>
+        <v>0.8664745388855952</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -765,10 +765,10 @@
         <v>0.6132244198585968</v>
       </c>
       <c r="C24">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
       <c r="D24">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
       <c r="E24">
         <v>0.7573290688602764</v>
@@ -779,13 +779,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.6132244198585969</v>
+        <v>0.6132244198585968</v>
       </c>
       <c r="C25">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
       <c r="D25">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
       <c r="E25">
         <v>0.7573290688602764</v>
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.6132244198585969</v>
+        <v>0.6132244198585968</v>
       </c>
       <c r="C26">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
       <c r="D26">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
       <c r="E26">
         <v>0.7573290688602764</v>
@@ -816,10 +816,10 @@
         <v>0.7666156389172889</v>
       </c>
       <c r="C27">
-        <v>0.7233034728935778</v>
+        <v>0.7233034728935777</v>
       </c>
       <c r="D27">
-        <v>0.8750426363872178</v>
+        <v>0.8750426363872175</v>
       </c>
       <c r="E27">
         <v>0.8957830267562139</v>
@@ -833,10 +833,10 @@
         <v>0.7666156389172889</v>
       </c>
       <c r="C28">
-        <v>0.7233034728935778</v>
+        <v>0.7233034728935777</v>
       </c>
       <c r="D28">
-        <v>0.8750426363872178</v>
+        <v>0.8750426363872175</v>
       </c>
       <c r="E28">
         <v>0.8957830267562139</v>
@@ -850,10 +850,10 @@
         <v>0.7666156389172889</v>
       </c>
       <c r="C29">
-        <v>0.7233034728935778</v>
+        <v>0.7233034728935777</v>
       </c>
       <c r="D29">
-        <v>0.8750426363872178</v>
+        <v>0.8750426363872176</v>
       </c>
       <c r="E29">
         <v>0.8957830267562139</v>
@@ -867,10 +867,10 @@
         <v>0.7650290339432813</v>
       </c>
       <c r="C30">
-        <v>0.781980673535037</v>
+        <v>0.7819806735350369</v>
       </c>
       <c r="D30">
-        <v>0.8482618942268829</v>
+        <v>0.8482618942268828</v>
       </c>
       <c r="E30">
         <v>0.8283949921277111</v>
@@ -884,7 +884,7 @@
         <v>0.7650290339432813</v>
       </c>
       <c r="C31">
-        <v>0.781980673535037</v>
+        <v>0.7819806735350369</v>
       </c>
       <c r="D31">
         <v>0.848261894226883</v>
@@ -898,13 +898,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.8328714505414114</v>
+        <v>0.8328714505414115</v>
       </c>
       <c r="C32">
-        <v>0.8726271629756657</v>
+        <v>0.8726271629756654</v>
       </c>
       <c r="D32">
-        <v>0.9462121574861024</v>
+        <v>0.9462121574861023</v>
       </c>
       <c r="E32">
         <v>0.9030831867895444</v>
@@ -915,13 +915,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.7650290339432811</v>
+        <v>0.7650290339432813</v>
       </c>
       <c r="C33">
-        <v>0.781980673535037</v>
+        <v>0.7819806735350369</v>
       </c>
       <c r="D33">
-        <v>0.848261894226883</v>
+        <v>0.8482618942268828</v>
       </c>
       <c r="E33">
         <v>0.8283949921277109</v>
@@ -966,13 +966,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.7239910358167407</v>
+        <v>0.7239910358167408</v>
       </c>
       <c r="C36">
-        <v>0.7710573353391961</v>
+        <v>0.771057335339196</v>
       </c>
       <c r="D36">
-        <v>0.8865088660541737</v>
+        <v>0.8865088660541736</v>
       </c>
       <c r="E36">
         <v>0.8682822168936126</v>
@@ -983,16 +983,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.7854052542282571</v>
+        <v>0.7854052542282572</v>
       </c>
       <c r="C37">
-        <v>0.7898120177639927</v>
+        <v>0.7898120177639926</v>
       </c>
       <c r="D37">
-        <v>0.8429664834418549</v>
+        <v>0.8429664834418548</v>
       </c>
       <c r="E37">
-        <v>0.8196295355993107</v>
+        <v>0.8196295355993106</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1006,7 +1006,7 @@
         <v>0.7898120177639926</v>
       </c>
       <c r="D38">
-        <v>0.8429664834418549</v>
+        <v>0.8429664834418548</v>
       </c>
       <c r="E38">
         <v>0.8196295355993107</v>
@@ -1020,13 +1020,13 @@
         <v>0.9117637410101637</v>
       </c>
       <c r="C39">
-        <v>0.9341500388084918</v>
+        <v>0.9341500388084916</v>
       </c>
       <c r="D39">
-        <v>0.9864429646965619</v>
+        <v>0.9864429646965618</v>
       </c>
       <c r="E39">
-        <v>0.9309477530339154</v>
+        <v>0.9309477530339153</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1040,7 +1040,7 @@
         <v>1.103152531424044</v>
       </c>
       <c r="D40">
-        <v>1.128066264129648</v>
+        <v>1.128066264129647</v>
       </c>
       <c r="E40">
         <v>1.026096286081597</v>
@@ -1068,16 +1068,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.7970906343894081</v>
+        <v>0.7970906343894083</v>
       </c>
       <c r="C42">
-        <v>0.8272709534908804</v>
+        <v>0.8272709534908802</v>
       </c>
       <c r="D42">
         <v>0.9058292312882905</v>
       </c>
       <c r="E42">
-        <v>0.8713641231259753</v>
+        <v>0.8713641231259752</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1085,16 +1085,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.878717880356835</v>
+        <v>0.8787178803568351</v>
       </c>
       <c r="C43">
-        <v>0.9430682886997271</v>
+        <v>0.9430682886997269</v>
       </c>
       <c r="D43">
         <v>1.007548868799002</v>
       </c>
       <c r="E43">
-        <v>0.9586864899794031</v>
+        <v>0.958686489979403</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1102,16 +1102,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.8368165216367234</v>
+        <v>0.8368165216367236</v>
       </c>
       <c r="C44">
-        <v>0.9411124687888028</v>
+        <v>0.9411124687888027</v>
       </c>
       <c r="D44">
         <v>1.038875729131264</v>
       </c>
       <c r="E44">
-        <v>0.9772829019047976</v>
+        <v>0.9772829019047975</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1122,7 +1122,7 @@
         <v>0.7338203486850099</v>
       </c>
       <c r="C45">
-        <v>0.7642363482513971</v>
+        <v>0.764236348251397</v>
       </c>
       <c r="D45">
         <v>0.8628199855864116</v>
@@ -1139,13 +1139,13 @@
         <v>0.8479191752623438</v>
       </c>
       <c r="C46">
-        <v>0.8760931988171102</v>
+        <v>0.8760931988171101</v>
       </c>
       <c r="D46">
         <v>0.9398305461571287</v>
       </c>
       <c r="E46">
-        <v>0.8948430451712297</v>
+        <v>0.8948430451712296</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>0.8083500016715834</v>
       </c>
       <c r="C48">
-        <v>0.8773785134070252</v>
+        <v>0.8773785134070251</v>
       </c>
       <c r="D48">
-        <v>0.9673713085045259</v>
+        <v>0.9673713085045258</v>
       </c>
       <c r="E48">
         <v>0.935158895026447</v>
@@ -1190,7 +1190,7 @@
         <v>0.6827998438576055</v>
       </c>
       <c r="C49">
-        <v>0.6105709424762942</v>
+        <v>0.6105709424762943</v>
       </c>
       <c r="D49">
         <v>0.6817458689020395</v>
@@ -1241,13 +1241,13 @@
         <v>0.6573353664922749</v>
       </c>
       <c r="C52">
-        <v>0.6310487627794861</v>
+        <v>0.631048762779486</v>
       </c>
       <c r="D52">
         <v>0.7336754613588052</v>
       </c>
       <c r="E52">
-        <v>0.7692731771912602</v>
+        <v>0.76927317719126</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1258,7 +1258,7 @@
         <v>0.6030065380005259</v>
       </c>
       <c r="C53">
-        <v>0.5420210889608492</v>
+        <v>0.5420210889608493</v>
       </c>
       <c r="D53">
         <v>0.6196774835753096</v>
@@ -1278,10 +1278,10 @@
         <v>0.5170535246940446</v>
       </c>
       <c r="D54">
-        <v>0.5992562385679653</v>
+        <v>0.5992562385679654</v>
       </c>
       <c r="E54">
-        <v>0.6249448184092162</v>
+        <v>0.6249448184092161</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1292,13 +1292,13 @@
         <v>0.7430864003226783</v>
       </c>
       <c r="C55">
-        <v>0.6684547576909133</v>
+        <v>0.6684547576909134</v>
       </c>
       <c r="D55">
         <v>0.746381575923909</v>
       </c>
       <c r="E55">
-        <v>0.7859266393941716</v>
+        <v>0.7859266393941715</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>0.8411624762682479</v>
       </c>
       <c r="E56">
-        <v>0.854037320600888</v>
+        <v>0.8540373206008879</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>0.6813193767732671</v>
       </c>
       <c r="C57">
-        <v>0.6264280010345381</v>
+        <v>0.626428001034538</v>
       </c>
       <c r="D57">
         <v>0.7280364049218002</v>
@@ -1366,7 +1366,7 @@
         <v>0.8375765578738296</v>
       </c>
       <c r="E59">
-        <v>0.8654808458872708</v>
+        <v>0.8654808458872709</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1377,7 +1377,7 @@
         <v>0.5935514539983425</v>
       </c>
       <c r="C60">
-        <v>0.5386842617655655</v>
+        <v>0.5386842617655654</v>
       </c>
       <c r="D60">
         <v>0.6685055314372981</v>
@@ -1417,7 +1417,7 @@
         <v>0.586186144528181</v>
       </c>
       <c r="E62">
-        <v>0.6791160517935203</v>
+        <v>0.6791160517935204</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1442,13 +1442,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.3117110038271689</v>
+        <v>0.311711003827169</v>
       </c>
       <c r="C64">
         <v>0.3448184684459673</v>
       </c>
       <c r="D64">
-        <v>0.5497574325691152</v>
+        <v>0.5497574325691154</v>
       </c>
       <c r="E64">
         <v>0.6478319750357618</v>
@@ -1465,10 +1465,10 @@
         <v>0.3448184684459674</v>
       </c>
       <c r="D65">
-        <v>0.5497574325691152</v>
+        <v>0.5497574325691154</v>
       </c>
       <c r="E65">
-        <v>0.647831975035762</v>
+        <v>0.6478319750357618</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,13 +1476,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.9538383639082134</v>
+        <v>0.9538383639082136</v>
       </c>
       <c r="C66">
-        <v>0.918435709051462</v>
+        <v>0.9184357090514621</v>
       </c>
       <c r="D66">
-        <v>0.9144862771192518</v>
+        <v>0.9144862771192517</v>
       </c>
       <c r="E66">
         <v>0.8668734624564191</v>
@@ -1502,7 +1502,7 @@
         <v>1.03371300357548</v>
       </c>
       <c r="E67">
-        <v>0.9601743181911238</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1510,13 +1510,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.9538383639082133</v>
+        <v>0.9538383639082135</v>
       </c>
       <c r="C68">
-        <v>0.918435709051462</v>
+        <v>0.9184357090514621</v>
       </c>
       <c r="D68">
-        <v>0.9144862771192518</v>
+        <v>0.9144862771192517</v>
       </c>
       <c r="E68">
         <v>0.8668734624564191</v>
@@ -1536,7 +1536,7 @@
         <v>1.03371300357548</v>
       </c>
       <c r="E69">
-        <v>0.9601743181911236</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>1.03371300357548</v>
       </c>
       <c r="E70">
-        <v>0.9601743181911238</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1561,7 +1561,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.172296884464552</v>
+        <v>1.172296884464551</v>
       </c>
       <c r="C71">
         <v>1.176616073681176</v>
@@ -1629,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.9049844976528135</v>
+        <v>0.9049844976528134</v>
       </c>
       <c r="C75">
         <v>0.8898008904954459</v>
@@ -1638,7 +1638,7 @@
         <v>0.9136093144174826</v>
       </c>
       <c r="E75">
-        <v>0.8737229871481272</v>
+        <v>0.8737229871481271</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1655,7 +1655,7 @@
         <v>1.03371300357548</v>
       </c>
       <c r="E76">
-        <v>0.9601743181911238</v>
+        <v>0.9601743181911235</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.088992267568351</v>
+        <v>1.088992267568352</v>
       </c>
       <c r="C80">
         <v>1.074285621677071</v>
@@ -1765,7 +1765,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.00775893325016</v>
+        <v>1.007758933250159</v>
       </c>
       <c r="C83">
         <v>1.015026014508245</v>
@@ -1791,7 +1791,7 @@
         <v>0.979116639153304</v>
       </c>
       <c r="E84">
-        <v>0.8954179525804176</v>
+        <v>0.8954179525804175</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1808,7 +1808,7 @@
         <v>1.105132187290115</v>
       </c>
       <c r="E85">
-        <v>0.9806511720108639</v>
+        <v>0.9806511720108638</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>1.105132187290115</v>
       </c>
       <c r="E86">
-        <v>0.980651172010864</v>
+        <v>0.9806511720108639</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>1.128534335847781</v>
       </c>
       <c r="E87">
-        <v>0.9970299975737019</v>
+        <v>0.9970299975737017</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.224092929790597</v>
+        <v>1.224092929790598</v>
       </c>
       <c r="C90">
-        <v>1.160797147840247</v>
+        <v>1.160797147840246</v>
       </c>
       <c r="D90">
-        <v>1.057621398175171</v>
+        <v>1.05762139817517</v>
       </c>
       <c r="E90">
         <v>0.9322933579487495</v>
@@ -1904,7 +1904,7 @@
         <v>1.223930879262055</v>
       </c>
       <c r="C91">
-        <v>1.15897872626546</v>
+        <v>1.158978726265459</v>
       </c>
       <c r="D91">
         <v>1.053799792035585</v>
@@ -1918,7 +1918,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.223238561847103</v>
+        <v>1.223238561847104</v>
       </c>
       <c r="C92">
         <v>1.151210007858479</v>
@@ -1935,7 +1935,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.225345764671099</v>
+        <v>1.2253457646711</v>
       </c>
       <c r="C93">
         <v>1.174855614645891</v>
@@ -1944,7 +1944,7 @@
         <v>1.087166759824281</v>
       </c>
       <c r="E93">
-        <v>0.9740147409319231</v>
+        <v>0.974014740931923</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1958,10 +1958,10 @@
         <v>1.078923951531087</v>
       </c>
       <c r="D94">
-        <v>0.9200092280911426</v>
+        <v>0.9200092280911427</v>
       </c>
       <c r="E94">
-        <v>0.8173172235471919</v>
+        <v>0.8173172235471917</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,16 +1969,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.225231479180966</v>
+        <v>1.225231479180967</v>
       </c>
       <c r="C95">
         <v>1.17357318006939</v>
       </c>
       <c r="D95">
-        <v>1.084471587308112</v>
+        <v>1.084471587308111</v>
       </c>
       <c r="E95">
-        <v>0.9702088533584936</v>
+        <v>0.9702088533584935</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.223473373331329</v>
+        <v>1.22347337333133</v>
       </c>
       <c r="C96">
-        <v>1.153844903731793</v>
+        <v>1.153844903731792</v>
       </c>
       <c r="D96">
         <v>1.043010518532541</v>
@@ -2003,7 +2003,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.225345764671099</v>
+        <v>1.2253457646711</v>
       </c>
       <c r="C97">
         <v>1.174855614645891</v>
@@ -2012,7 +2012,7 @@
         <v>1.087166759824281</v>
       </c>
       <c r="E97">
-        <v>0.9740147409319232</v>
+        <v>0.9740147409319231</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2023,13 +2023,13 @@
         <v>1.125149654094499</v>
       </c>
       <c r="C98">
-        <v>1.100362870519467</v>
+        <v>1.100362870519468</v>
       </c>
       <c r="D98">
         <v>1.05080170300971</v>
       </c>
       <c r="E98">
-        <v>0.9608811221825406</v>
+        <v>0.9608811221825404</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2046,7 +2046,7 @@
         <v>1.032652179562275</v>
       </c>
       <c r="E99">
-        <v>0.9375417647370828</v>
+        <v>0.9375417647370826</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2063,7 +2063,7 @@
         <v>1.025413210966778</v>
       </c>
       <c r="E100">
-        <v>0.9295669243420566</v>
+        <v>0.9295669243420565</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>1.035063306410615</v>
       </c>
       <c r="E102">
-        <v>0.9427430627743552</v>
+        <v>0.942743062774355</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2114,7 +2114,7 @@
         <v>1.017731867916137</v>
       </c>
       <c r="E103">
-        <v>0.9462710463156929</v>
+        <v>0.9462710463156928</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2131,7 +2131,7 @@
         <v>1.017731867916137</v>
       </c>
       <c r="E104">
-        <v>0.9462710463156931</v>
+        <v>0.946271046315693</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2176,7 +2176,7 @@
         <v>1.197695696083825</v>
       </c>
       <c r="C107">
-        <v>1.291806666460104</v>
+        <v>1.291806666460103</v>
       </c>
       <c r="D107">
         <v>1.235830591202304</v>
@@ -2250,7 +2250,7 @@
         <v>1.059773510642309</v>
       </c>
       <c r="E111">
-        <v>0.9662929084521007</v>
+        <v>0.9662929084521006</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2264,7 +2264,7 @@
         <v>1.034868728800754</v>
       </c>
       <c r="D112">
-        <v>1.020039490073204</v>
+        <v>1.020039490073203</v>
       </c>
       <c r="E112">
         <v>0.9505377001258829</v>
@@ -2275,7 +2275,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.9890816130834872</v>
+        <v>0.9890816130834873</v>
       </c>
       <c r="C113">
         <v>1.054778543264254</v>
@@ -2284,7 +2284,7 @@
         <v>1.071801784858892</v>
       </c>
       <c r="E113">
-        <v>0.9803103523062831</v>
+        <v>0.9803103523062829</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2298,7 +2298,7 @@
         <v>1.19755358677558</v>
       </c>
       <c r="D114">
-        <v>1.185578949984695</v>
+        <v>1.185578949984694</v>
       </c>
       <c r="E114">
         <v>1.046626120218171</v>
@@ -2332,7 +2332,7 @@
         <v>1.034868728800754</v>
       </c>
       <c r="D116">
-        <v>1.020039490073204</v>
+        <v>1.020039490073203</v>
       </c>
       <c r="E116">
         <v>0.950537700125883</v>
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.9894614408145255</v>
+        <v>0.9894614408145258</v>
       </c>
       <c r="C117">
         <v>1.055744840231921</v>
@@ -2352,7 +2352,7 @@
         <v>1.073406778627657</v>
       </c>
       <c r="E117">
-        <v>0.9817413943556571</v>
+        <v>0.9817413943556569</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2403,7 +2403,7 @@
         <v>1.061182900615104</v>
       </c>
       <c r="E120">
-        <v>0.9637622564373974</v>
+        <v>0.9637622564373973</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2414,13 +2414,13 @@
         <v>1.150532753209163</v>
       </c>
       <c r="C121">
-        <v>1.117443194291111</v>
+        <v>1.11744319429111</v>
       </c>
       <c r="D121">
         <v>1.061182900615104</v>
       </c>
       <c r="E121">
-        <v>0.9637622564373974</v>
+        <v>0.9637622564373973</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.046324302706678</v>
+        <v>1.046324302706679</v>
       </c>
       <c r="C122">
         <v>1.09156562067784</v>
@@ -2462,7 +2462,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.046324302706678</v>
+        <v>1.046324302706679</v>
       </c>
       <c r="C124">
         <v>1.09156562067784</v>
@@ -2471,7 +2471,7 @@
         <v>1.09196444037544</v>
       </c>
       <c r="E124">
-        <v>0.991767510285075</v>
+        <v>0.9917675102850749</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2573,7 +2573,7 @@
         <v>1.053821363063527</v>
       </c>
       <c r="E130">
-        <v>0.9513847277973364</v>
+        <v>0.9513847277973363</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2624,7 +2624,7 @@
         <v>1.031714323154467</v>
       </c>
       <c r="E133">
-        <v>0.9204156752755637</v>
+        <v>0.9204156752755638</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2672,7 +2672,7 @@
         <v>1.044423134415561</v>
       </c>
       <c r="D136">
-        <v>0.9949329414028966</v>
+        <v>0.9949329414028965</v>
       </c>
       <c r="E136">
         <v>0.9144768819417539</v>
@@ -2740,7 +2740,7 @@
         <v>1.126222606142988</v>
       </c>
       <c r="D140">
-        <v>0.9696049870975276</v>
+        <v>0.9696049870975274</v>
       </c>
       <c r="E140">
         <v>0.9011680853561498</v>
@@ -2777,7 +2777,7 @@
         <v>1.022692540161081</v>
       </c>
       <c r="E142">
-        <v>0.9357659164858126</v>
+        <v>0.9357659164858125</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2839,7 +2839,7 @@
         <v>1.280575998927458</v>
       </c>
       <c r="C146">
-        <v>1.335711373712993</v>
+        <v>1.335711373712992</v>
       </c>
       <c r="D146">
         <v>1.232463722330898</v>
@@ -2879,7 +2879,7 @@
         <v>1.039703063948122</v>
       </c>
       <c r="E148">
-        <v>0.9513615251060933</v>
+        <v>0.9513615251060932</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2887,16 +2887,16 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1.030855716912978</v>
+        <v>1.030855716912979</v>
       </c>
       <c r="C149">
-        <v>0.98131794614861</v>
+        <v>0.9813179461486097</v>
       </c>
       <c r="D149">
-        <v>0.9500669659307973</v>
+        <v>0.9500669659307972</v>
       </c>
       <c r="E149">
-        <v>0.8852158927665442</v>
+        <v>0.885215892766544</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2904,16 +2904,16 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1.030855716912978</v>
+        <v>1.030855716912979</v>
       </c>
       <c r="C150">
-        <v>0.9813179461486099</v>
+        <v>0.9813179461486097</v>
       </c>
       <c r="D150">
-        <v>0.9500669659307974</v>
+        <v>0.9500669659307973</v>
       </c>
       <c r="E150">
-        <v>0.8852158927665442</v>
+        <v>0.8852158927665441</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,7 +2924,7 @@
         <v>1.030806924398961</v>
       </c>
       <c r="C151">
-        <v>0.9767261176762384</v>
+        <v>0.9767261176762383</v>
       </c>
       <c r="D151">
         <v>0.9373300506022834</v>
@@ -2938,10 +2938,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1.030855716912978</v>
+        <v>1.030855716912979</v>
       </c>
       <c r="C152">
-        <v>0.98131794614861</v>
+        <v>0.9813179461486097</v>
       </c>
       <c r="D152">
         <v>0.9500669659307972</v>
@@ -2958,7 +2958,7 @@
         <v>1.137709118814103</v>
       </c>
       <c r="C153">
-        <v>1.184166630586749</v>
+        <v>1.184166630586748</v>
       </c>
       <c r="D153">
         <v>1.157764384228854</v>
@@ -2975,7 +2975,7 @@
         <v>1.137709118814103</v>
       </c>
       <c r="C154">
-        <v>1.184166630586749</v>
+        <v>1.184166630586748</v>
       </c>
       <c r="D154">
         <v>1.157764384228854</v>
@@ -3009,13 +3009,13 @@
         <v>0.9467266767150229</v>
       </c>
       <c r="C156">
-        <v>0.9395969678945142</v>
+        <v>0.939596967894514</v>
       </c>
       <c r="D156">
         <v>0.9472469099669882</v>
       </c>
       <c r="E156">
-        <v>0.8863861581218081</v>
+        <v>0.8863861581218079</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,7 +3023,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.008987933214529</v>
+        <v>1.00898793321453</v>
       </c>
       <c r="C157">
         <v>1.020822619837401</v>
@@ -3040,16 +3040,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.9857728939539724</v>
+        <v>0.9857728939539725</v>
       </c>
       <c r="C158">
-        <v>0.9869369626122959</v>
+        <v>0.9869369626122957</v>
       </c>
       <c r="D158">
-        <v>0.9907878132442683</v>
+        <v>0.9907878132442682</v>
       </c>
       <c r="E158">
-        <v>0.9187661674006367</v>
+        <v>0.9187661674006368</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3060,10 +3060,10 @@
         <v>0.9831936845120171</v>
       </c>
       <c r="C159">
-        <v>0.9331823188348506</v>
+        <v>0.9331823188348505</v>
       </c>
       <c r="D159">
-        <v>0.9103093015462226</v>
+        <v>0.9103093015462225</v>
       </c>
       <c r="E159">
         <v>0.8562396552648103</v>
@@ -3077,7 +3077,7 @@
         <v>0.926505092339953</v>
       </c>
       <c r="C160">
-        <v>0.9340975809993566</v>
+        <v>0.9340975809993564</v>
       </c>
       <c r="D160">
         <v>0.9525625187125569</v>
@@ -3100,7 +3100,7 @@
         <v>1.05743805320953</v>
       </c>
       <c r="E161">
-        <v>0.9708042107235665</v>
+        <v>0.9708042107235663</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3128,13 +3128,13 @@
         <v>0.9990163204522122</v>
       </c>
       <c r="C163">
-        <v>0.959104250402346</v>
+        <v>0.9591042504023458</v>
       </c>
       <c r="D163">
         <v>0.9378234928711504</v>
       </c>
       <c r="E163">
-        <v>0.8792984660997304</v>
+        <v>0.8792984660997303</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3151,7 +3151,7 @@
         <v>1.018232698282154</v>
       </c>
       <c r="E164">
-        <v>0.9398661602050211</v>
+        <v>0.9398661602050209</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,10 +3159,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.9298386299874405</v>
+        <v>0.9298386299874407</v>
       </c>
       <c r="C165">
-        <v>0.9445782602348323</v>
+        <v>0.944578260234832</v>
       </c>
       <c r="D165">
         <v>0.9670324400604746</v>
@@ -3176,13 +3176,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.9298386299874405</v>
+        <v>0.9298386299874408</v>
       </c>
       <c r="C166">
-        <v>0.9445782602348322</v>
+        <v>0.9445782602348319</v>
       </c>
       <c r="D166">
-        <v>0.9670324400604746</v>
+        <v>0.9670324400604745</v>
       </c>
       <c r="E166">
         <v>0.9040707324724137</v>
@@ -3202,7 +3202,7 @@
         <v>1.08191463231967</v>
       </c>
       <c r="E167">
-        <v>0.9883473940272028</v>
+        <v>0.9883473940272027</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3236,7 +3236,7 @@
         <v>1.060865422767089</v>
       </c>
       <c r="E169">
-        <v>0.958856384546411</v>
+        <v>0.9588563845464111</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3298,7 +3298,7 @@
         <v>1.163833977655454</v>
       </c>
       <c r="C173">
-        <v>1.097181344941394</v>
+        <v>1.097181344941393</v>
       </c>
       <c r="D173">
         <v>1.008160477225047</v>
@@ -3318,7 +3318,7 @@
         <v>1.090672905548517</v>
       </c>
       <c r="D174">
-        <v>0.9927812979019427</v>
+        <v>0.9927812979019424</v>
       </c>
       <c r="E174">
         <v>0.8805253653624409</v>
@@ -3332,7 +3332,7 @@
         <v>1.212190349181011</v>
       </c>
       <c r="C175">
-        <v>1.25645173896662</v>
+        <v>1.256451738966619</v>
       </c>
       <c r="D175">
         <v>1.201181562413486</v>
@@ -3355,7 +3355,7 @@
         <v>1.10382159133685</v>
       </c>
       <c r="E176">
-        <v>0.9958519676288426</v>
+        <v>0.9958519676288425</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>1.10382159133685</v>
       </c>
       <c r="E177">
-        <v>0.9958519676288426</v>
+        <v>0.9958519676288424</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3389,7 +3389,7 @@
         <v>1.001189745817829</v>
       </c>
       <c r="E178">
-        <v>0.9273164111992834</v>
+        <v>0.9273164111992833</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3437,7 +3437,7 @@
         <v>1.403635376371625</v>
       </c>
       <c r="D181">
-        <v>1.301450595116967</v>
+        <v>1.301450595116966</v>
       </c>
       <c r="E181">
         <v>1.112168063128653</v>
@@ -3454,10 +3454,10 @@
         <v>1.24317621867356</v>
       </c>
       <c r="D182">
-        <v>1.200661183349197</v>
+        <v>1.200661183349196</v>
       </c>
       <c r="E182">
-        <v>1.058855933541596</v>
+        <v>1.058855933541597</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3485,7 +3485,7 @@
         <v>1.156841640587635</v>
       </c>
       <c r="C184">
-        <v>1.202856498235079</v>
+        <v>1.202856498235078</v>
       </c>
       <c r="D184">
         <v>1.16247013328515</v>
@@ -3502,7 +3502,7 @@
         <v>1.156841640587635</v>
       </c>
       <c r="C185">
-        <v>1.202856498235079</v>
+        <v>1.202856498235078</v>
       </c>
       <c r="D185">
         <v>1.16247013328515</v>
@@ -3519,7 +3519,7 @@
         <v>1.197125725500813</v>
       </c>
       <c r="C186">
-        <v>1.263937248449086</v>
+        <v>1.263937248449085</v>
       </c>
       <c r="D186">
         <v>1.201729273177374</v>
@@ -3539,10 +3539,10 @@
         <v>1.124727458514858</v>
       </c>
       <c r="D187">
-        <v>1.106031061555568</v>
+        <v>1.106031061555567</v>
       </c>
       <c r="E187">
-        <v>0.9936498296392792</v>
+        <v>0.9936498296392788</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3570,7 +3570,7 @@
         <v>1.195760027418302</v>
       </c>
       <c r="C189">
-        <v>1.2440953335776</v>
+        <v>1.244095333577599</v>
       </c>
       <c r="D189">
         <v>1.202837455228315</v>
@@ -3627,7 +3627,7 @@
         <v>1.106031061555567</v>
       </c>
       <c r="E192">
-        <v>0.9936498296392793</v>
+        <v>0.9936498296392789</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,7 +3635,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.138491643881992</v>
+        <v>1.138491643881993</v>
       </c>
       <c r="C193">
         <v>1.096648000335612</v>
@@ -3644,7 +3644,7 @@
         <v>1.035063306410615</v>
       </c>
       <c r="E193">
-        <v>0.9427430627743553</v>
+        <v>0.942743062774355</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3658,10 +3658,10 @@
         <v>1.08046795708507</v>
       </c>
       <c r="D194">
-        <v>0.9998231901529046</v>
+        <v>0.9998231901529043</v>
       </c>
       <c r="E194">
-        <v>0.894626580104908</v>
+        <v>0.8946265801049077</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3675,10 +3675,10 @@
         <v>1.130073374726106</v>
       </c>
       <c r="D195">
-        <v>1.057107392386138</v>
+        <v>1.057107392386139</v>
       </c>
       <c r="E195">
-        <v>0.9539638295141154</v>
+        <v>0.9539638295141153</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3695,7 +3695,7 @@
         <v>1.011697464100852</v>
       </c>
       <c r="E196">
-        <v>0.9315218135640935</v>
+        <v>0.9315218135640934</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>1.068782372977842</v>
       </c>
       <c r="C198">
-        <v>1.033328632373763</v>
+        <v>1.033328632373762</v>
       </c>
       <c r="D198">
         <v>0.9816849617806771</v>
       </c>
       <c r="E198">
-        <v>0.8980086928445443</v>
+        <v>0.8980086928445442</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3740,10 +3740,10 @@
         <v>1.083400463517443</v>
       </c>
       <c r="C199">
-        <v>1.112214556698538</v>
+        <v>1.112214556698537</v>
       </c>
       <c r="D199">
-        <v>1.078620999441834</v>
+        <v>1.078620999441833</v>
       </c>
       <c r="E199">
         <v>0.9725399999427308</v>
@@ -3774,7 +3774,7 @@
         <v>1.171214047821084</v>
       </c>
       <c r="C201">
-        <v>1.228351402002795</v>
+        <v>1.228351402002796</v>
       </c>
       <c r="D201">
         <v>1.163036117498758</v>
@@ -3794,7 +3794,7 @@
         <v>1.350749869616793</v>
       </c>
       <c r="D202">
-        <v>1.184308989475372</v>
+        <v>1.184308989475371</v>
       </c>
       <c r="E202">
         <v>1.034607621447641</v>
@@ -3805,7 +3805,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1.113236157928835</v>
+        <v>1.113236157928836</v>
       </c>
       <c r="C203">
         <v>1.142200879944515</v>
@@ -3865,7 +3865,7 @@
         <v>0.8108645306982248</v>
       </c>
       <c r="E206">
-        <v>0.798253025363038</v>
+        <v>0.7982530253630379</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3879,7 +3879,7 @@
         <v>0.7312724608232124</v>
       </c>
       <c r="D207">
-        <v>0.7456240445887994</v>
+        <v>0.7456240445887995</v>
       </c>
       <c r="E207">
         <v>0.7472124894645789</v>
@@ -3896,7 +3896,7 @@
         <v>0.7312724608232124</v>
       </c>
       <c r="D208">
-        <v>0.7456240445887994</v>
+        <v>0.7456240445887996</v>
       </c>
       <c r="E208">
         <v>0.7472124894645789</v>
@@ -3913,10 +3913,10 @@
         <v>0.7858458754760274</v>
       </c>
       <c r="D209">
-        <v>0.773684031154109</v>
+        <v>0.7736840311541089</v>
       </c>
       <c r="E209">
-        <v>0.7448125318932426</v>
+        <v>0.7448125318932425</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3930,7 +3930,7 @@
         <v>0.7312724608232124</v>
       </c>
       <c r="D210">
-        <v>0.7456240445887995</v>
+        <v>0.7456240445887996</v>
       </c>
       <c r="E210">
         <v>0.7472124894645789</v>
@@ -3944,7 +3944,7 @@
         <v>0.836570821314638</v>
       </c>
       <c r="C211">
-        <v>0.7975863693017711</v>
+        <v>0.797586369301771</v>
       </c>
       <c r="D211">
         <v>0.8598647477258696</v>
@@ -3981,7 +3981,7 @@
         <v>0.7312724608232124</v>
       </c>
       <c r="D213">
-        <v>0.7456240445887995</v>
+        <v>0.7456240445887996</v>
       </c>
       <c r="E213">
         <v>0.7472124894645789</v>
@@ -4063,13 +4063,13 @@
         <v>0.8287033046999598</v>
       </c>
       <c r="C218">
-        <v>0.8271547855222194</v>
+        <v>0.8271547855222193</v>
       </c>
       <c r="D218">
         <v>0.9158548298014428</v>
       </c>
       <c r="E218">
-        <v>0.8754248507897104</v>
+        <v>0.8754248507897103</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4080,13 +4080,13 @@
         <v>0.8271458212126139</v>
       </c>
       <c r="C219">
-        <v>0.8234577003873965</v>
+        <v>0.8234577003873964</v>
       </c>
       <c r="D219">
         <v>0.9009241510526733</v>
       </c>
       <c r="E219">
-        <v>0.8678514907893596</v>
+        <v>0.8678514907893595</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.8537787005102541</v>
+        <v>0.8537787005102543</v>
       </c>
       <c r="C220">
         <v>0.8709118610277073</v>
@@ -4117,7 +4117,7 @@
         <v>0.9687810856010377</v>
       </c>
       <c r="D221">
-        <v>1.038003431085195</v>
+        <v>1.038003431085194</v>
       </c>
       <c r="E221">
         <v>0.9574763874298354</v>
@@ -4137,7 +4137,7 @@
         <v>0.9009241510526734</v>
       </c>
       <c r="E222">
-        <v>0.8678514907893596</v>
+        <v>0.8678514907893595</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4162,7 +4162,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.9098426645203513</v>
+        <v>0.9098426645203516</v>
       </c>
       <c r="C224">
         <v>0.8966433424795978</v>
@@ -4202,7 +4202,7 @@
         <v>0.7705414852352418</v>
       </c>
       <c r="D226">
-        <v>0.8505839075118294</v>
+        <v>0.8505839075118296</v>
       </c>
       <c r="E226">
         <v>0.8361994281453408</v>
@@ -4216,7 +4216,7 @@
         <v>0.7855706250192117</v>
       </c>
       <c r="C227">
-        <v>0.6838217638664862</v>
+        <v>0.6838217638664861</v>
       </c>
       <c r="D227">
         <v>0.6862061321426657</v>
@@ -4239,7 +4239,7 @@
         <v>0.9486192034883668</v>
       </c>
       <c r="E228">
-        <v>0.9370200984664729</v>
+        <v>0.9370200984664728</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,13 +4247,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.8537787005102542</v>
+        <v>0.8537787005102543</v>
       </c>
       <c r="C229">
         <v>0.8709118610277072</v>
       </c>
       <c r="D229">
-        <v>0.9427033987702141</v>
+        <v>0.942703398770214</v>
       </c>
       <c r="E229">
         <v>0.896357736082992</v>
@@ -4264,7 +4264,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.8392360571851528</v>
+        <v>0.8392360571851529</v>
       </c>
       <c r="C230">
         <v>0.8370945928104105</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.9623072578372276</v>
+        <v>0.9623072578372277</v>
       </c>
       <c r="C231">
         <v>0.9963118497411677</v>
@@ -4290,7 +4290,7 @@
         <v>1.044903329174929</v>
       </c>
       <c r="E231">
-        <v>0.9590783649557808</v>
+        <v>0.9590783649557807</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4304,7 +4304,7 @@
         <v>0.8935580257481042</v>
       </c>
       <c r="D232">
-        <v>0.9752681998221936</v>
+        <v>0.9752681998221935</v>
       </c>
       <c r="E232">
         <v>0.9165133903456254</v>
@@ -4341,7 +4341,7 @@
         <v>1.137227459441738</v>
       </c>
       <c r="E234">
-        <v>1.026586156382931</v>
+        <v>1.02658615638293</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4392,7 +4392,7 @@
         <v>0.8494554725908093</v>
       </c>
       <c r="E237">
-        <v>0.8291683290519982</v>
+        <v>0.8291683290519981</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.7911037989773919</v>
+        <v>0.791103798977392</v>
       </c>
       <c r="C238">
-        <v>0.7039426101459831</v>
+        <v>0.7039426101459832</v>
       </c>
       <c r="D238">
         <v>0.7442782553276495</v>
       </c>
       <c r="E238">
-        <v>0.7406152025551894</v>
+        <v>0.7406152025551893</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,10 +4420,10 @@
         <v>0.9452961420568929</v>
       </c>
       <c r="C239">
-        <v>0.9278175697636374</v>
+        <v>0.9278175697636372</v>
       </c>
       <c r="D239">
-        <v>0.9943083797002001</v>
+        <v>0.9943083797001999</v>
       </c>
       <c r="E239">
         <v>0.9371360286400342</v>
@@ -4434,16 +4434,16 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.8748671652646935</v>
+        <v>0.8748671652646933</v>
       </c>
       <c r="C240">
-        <v>0.8563155701677216</v>
+        <v>0.8563155701677215</v>
       </c>
       <c r="D240">
-        <v>0.9277546070262482</v>
+        <v>0.9277546070262483</v>
       </c>
       <c r="E240">
-        <v>0.8975578185154425</v>
+        <v>0.8975578185154423</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4454,13 +4454,13 @@
         <v>0.8905108028946338</v>
       </c>
       <c r="C241">
-        <v>0.8892159219288274</v>
+        <v>0.8892159219288271</v>
       </c>
       <c r="D241">
-        <v>0.9735156871097194</v>
+        <v>0.9735156871097193</v>
       </c>
       <c r="E241">
-        <v>0.920102993925127</v>
+        <v>0.9201029939251268</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4474,7 +4474,7 @@
         <v>0.9687810856010377</v>
       </c>
       <c r="D242">
-        <v>1.038003431085195</v>
+        <v>1.038003431085194</v>
       </c>
       <c r="E242">
         <v>0.9574763874298355</v>
@@ -4494,7 +4494,7 @@
         <v>1.070393326847923</v>
       </c>
       <c r="E243">
-        <v>0.9760185974873299</v>
+        <v>0.97601859748733</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4508,10 +4508,10 @@
         <v>0.9687810856010377</v>
       </c>
       <c r="D244">
-        <v>1.038003431085195</v>
+        <v>1.038003431085194</v>
       </c>
       <c r="E244">
-        <v>0.9574763874298358</v>
+        <v>0.9574763874298354</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4596,7 +4596,7 @@
         <v>0.9810310548426754</v>
       </c>
       <c r="E249">
-        <v>0.9491647712897812</v>
+        <v>0.9491647712897811</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4675,7 +4675,7 @@
         <v>1.266220345570347</v>
       </c>
       <c r="C254">
-        <v>1.353559837159518</v>
+        <v>1.353559837159517</v>
       </c>
       <c r="D254">
         <v>1.292778042759768</v>
@@ -4723,7 +4723,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.9642746290024582</v>
+        <v>0.9642746290024583</v>
       </c>
       <c r="C257">
         <v>1.079555830500042</v>
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.95588186249956</v>
+        <v>0.9558818624995598</v>
       </c>
       <c r="C258">
         <v>1.052311292884688</v>
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.95588186249956</v>
+        <v>0.9558818624995598</v>
       </c>
       <c r="C259">
         <v>1.052311292884688</v>
@@ -4777,7 +4777,7 @@
         <v>0.5467661312930168</v>
       </c>
       <c r="C260">
-        <v>0.6036480391237806</v>
+        <v>0.6036480391237805</v>
       </c>
       <c r="D260">
         <v>0.77303717439354</v>
@@ -4800,7 +4800,7 @@
         <v>0.7721111778213644</v>
       </c>
       <c r="E261">
-        <v>0.8049375774922423</v>
+        <v>0.8049375774922424</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>0.6018996206046041</v>
       </c>
       <c r="C263">
-        <v>0.7050943722483006</v>
+        <v>0.7050943722483004</v>
       </c>
       <c r="D263">
-        <v>0.8690857259606116</v>
+        <v>0.8690857259606114</v>
       </c>
       <c r="E263">
-        <v>0.8760776543270231</v>
+        <v>0.876077654327023</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4848,10 +4848,10 @@
         <v>0.6511002538398132</v>
       </c>
       <c r="D264">
-        <v>0.8355062190092585</v>
+        <v>0.8355062190092586</v>
       </c>
       <c r="E264">
-        <v>0.8436182125204265</v>
+        <v>0.8436182125204263</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4882,10 +4882,10 @@
         <v>0.8638517331570241</v>
       </c>
       <c r="D266">
-        <v>0.9900924989324519</v>
+        <v>0.9900924989324518</v>
       </c>
       <c r="E266">
-        <v>0.9498882395487303</v>
+        <v>0.94988823954873</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4902,7 +4902,7 @@
         <v>0.8355062190092587</v>
       </c>
       <c r="E267">
-        <v>0.8436182125204265</v>
+        <v>0.8436182125204263</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4913,10 +4913,10 @@
         <v>0.4252316454475291</v>
       </c>
       <c r="C268">
-        <v>0.5394852081559844</v>
+        <v>0.5394852081559843</v>
       </c>
       <c r="D268">
-        <v>0.7721111778213644</v>
+        <v>0.7721111778213645</v>
       </c>
       <c r="E268">
         <v>0.8049375774922424</v>
@@ -4930,13 +4930,13 @@
         <v>0.4252316454475291</v>
       </c>
       <c r="C269">
-        <v>0.5394852081559844</v>
+        <v>0.5394852081559843</v>
       </c>
       <c r="D269">
         <v>0.7721111778213644</v>
       </c>
       <c r="E269">
-        <v>0.8049375774922423</v>
+        <v>0.8049375774922425</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,7 +4944,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.6665813653962507</v>
+        <v>0.6665813653962505</v>
       </c>
       <c r="C270">
         <v>0.7914942259174692</v>
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.6661644326631773</v>
+        <v>0.666164432663177</v>
       </c>
       <c r="C273">
         <v>0.8146403758495828</v>
       </c>
       <c r="D273">
-        <v>0.9356844279775038</v>
+        <v>0.9356844279775037</v>
       </c>
       <c r="E273">
-        <v>0.8978861966120049</v>
+        <v>0.8978861966120047</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,7 +5012,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.6661644326631772</v>
+        <v>0.666164432663177</v>
       </c>
       <c r="C274">
         <v>0.8146403758495828</v>
@@ -5021,7 +5021,7 @@
         <v>0.9356844279775038</v>
       </c>
       <c r="E274">
-        <v>0.897886196612005</v>
+        <v>0.8978861966120047</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5038,7 +5038,7 @@
         <v>0.6363751863245698</v>
       </c>
       <c r="E275">
-        <v>0.6801083035388</v>
+        <v>0.6801083035388001</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5046,13 +5046,13 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.5329418735435161</v>
+        <v>0.5329418735435162</v>
       </c>
       <c r="C276">
         <v>0.5324176737078935</v>
       </c>
       <c r="D276">
-        <v>0.6561966236687441</v>
+        <v>0.656196623668744</v>
       </c>
       <c r="E276">
         <v>0.7050661929887727</v>
@@ -5066,10 +5066,10 @@
         <v>0.7925924180155907</v>
       </c>
       <c r="C277">
-        <v>0.7712090042579501</v>
+        <v>0.7712090042579502</v>
       </c>
       <c r="D277">
-        <v>0.8897757053654805</v>
+        <v>0.8897757053654803</v>
       </c>
       <c r="E277">
         <v>0.8929218212522964</v>
@@ -5080,7 +5080,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.9467644303386024</v>
+        <v>0.9467644303386022</v>
       </c>
       <c r="C278">
         <v>0.9508770480297812</v>
@@ -5097,7 +5097,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.8935543533313572</v>
+        <v>0.8935543533313574</v>
       </c>
       <c r="C279">
         <v>0.8877724793170095</v>
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.8935543533313572</v>
+        <v>0.8935543533313574</v>
       </c>
       <c r="C280">
         <v>0.8877724793170095</v>
       </c>
       <c r="D280">
-        <v>0.998196109490637</v>
+        <v>0.9981961094906372</v>
       </c>
       <c r="E280">
-        <v>0.9613608034979221</v>
+        <v>0.9613608034979217</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,7 +5134,7 @@
         <v>0.557806657981722</v>
       </c>
       <c r="C281">
-        <v>0.5680246213375265</v>
+        <v>0.5680246213375264</v>
       </c>
       <c r="D281">
         <v>0.7119698967921166</v>
@@ -5154,10 +5154,10 @@
         <v>0.5216534642397929</v>
       </c>
       <c r="D282">
-        <v>0.6543261035946755</v>
+        <v>0.6543261035946754</v>
       </c>
       <c r="E282">
-        <v>0.7052132061133193</v>
+        <v>0.7052132061133194</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5191,7 +5191,7 @@
         <v>0.6543261035946754</v>
       </c>
       <c r="E284">
-        <v>0.7052132061133193</v>
+        <v>0.7052132061133194</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.5329418735435161</v>
+        <v>0.5329418735435162</v>
       </c>
       <c r="C285">
-        <v>0.5324176737078936</v>
+        <v>0.5324176737078935</v>
       </c>
       <c r="D285">
-        <v>0.6561966236687441</v>
+        <v>0.656196623668744</v>
       </c>
       <c r="E285">
-        <v>0.7050661929887727</v>
+        <v>0.7050661929887728</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,7 +5216,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.8935543533313572</v>
+        <v>0.8935543533313574</v>
       </c>
       <c r="C286">
         <v>0.8877724793170095</v>
@@ -5225,7 +5225,7 @@
         <v>0.9981961094906372</v>
       </c>
       <c r="E286">
-        <v>0.961360803497922</v>
+        <v>0.9613608034979217</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,7 +5233,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.9100323221028023</v>
+        <v>0.9100323221028024</v>
       </c>
       <c r="C287">
         <v>1.009101595206095</v>
@@ -5250,7 +5250,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.7786018284218729</v>
+        <v>0.778601828421873</v>
       </c>
       <c r="C288">
         <v>0.9221250283347207</v>
@@ -5293,7 +5293,7 @@
         <v>1.103517475074574</v>
       </c>
       <c r="E290">
-        <v>1.016884451365693</v>
+        <v>1.016884451365692</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5304,10 +5304,10 @@
         <v>0.7128512534813928</v>
       </c>
       <c r="C291">
-        <v>0.8624408043013247</v>
+        <v>0.8624408043013244</v>
       </c>
       <c r="D291">
-        <v>0.9910002698562552</v>
+        <v>0.9910002698562553</v>
       </c>
       <c r="E291">
         <v>0.9512819488988493</v>
@@ -5321,13 +5321,13 @@
         <v>0.8255604227830096</v>
       </c>
       <c r="C292">
-        <v>0.962503401713543</v>
+        <v>0.9625034017135428</v>
       </c>
       <c r="D292">
         <v>1.044545002244116</v>
       </c>
       <c r="E292">
-        <v>0.9742436016521511</v>
+        <v>0.9742436016521508</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5338,7 +5338,7 @@
         <v>0.8320014193979515</v>
       </c>
       <c r="C293">
-        <v>0.9672714047634098</v>
+        <v>0.9672714047634097</v>
       </c>
       <c r="D293">
         <v>1.047202579697625</v>
@@ -5355,7 +5355,7 @@
         <v>0.8704873143851631</v>
       </c>
       <c r="C294">
-        <v>1.002657590742079</v>
+        <v>1.002657590742078</v>
       </c>
       <c r="D294">
         <v>1.077841597295345</v>
@@ -5372,13 +5372,13 @@
         <v>0.7276224462361207</v>
       </c>
       <c r="C295">
-        <v>0.7467144731358301</v>
+        <v>0.7467144731358298</v>
       </c>
       <c r="D295">
-        <v>0.8117804332779219</v>
+        <v>0.8117804332779218</v>
       </c>
       <c r="E295">
-        <v>0.7999863314768494</v>
+        <v>0.7999863314768493</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,10 +5389,10 @@
         <v>0.7621974568579455</v>
       </c>
       <c r="C296">
-        <v>0.7834033798338107</v>
+        <v>0.7834033798338106</v>
       </c>
       <c r="D296">
-        <v>0.8479250380635924</v>
+        <v>0.8479250380635922</v>
       </c>
       <c r="E296">
         <v>0.830397853208254</v>
@@ -5426,7 +5426,7 @@
         <v>0.7428793794798081</v>
       </c>
       <c r="D298">
-        <v>0.8136218792541856</v>
+        <v>0.8136218792541855</v>
       </c>
       <c r="E298">
         <v>0.8054179232333782</v>
@@ -5440,10 +5440,10 @@
         <v>0.7855108896859453</v>
       </c>
       <c r="C299">
-        <v>0.8586303591169921</v>
+        <v>0.8586303591169919</v>
       </c>
       <c r="D299">
-        <v>0.9385806917411432</v>
+        <v>0.938580691741143</v>
       </c>
       <c r="E299">
         <v>0.8953399784602222</v>
@@ -5454,13 +5454,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.7276224462361207</v>
+        <v>0.7276224462361208</v>
       </c>
       <c r="C300">
-        <v>0.7467144731358301</v>
+        <v>0.7467144731358298</v>
       </c>
       <c r="D300">
-        <v>0.8117804332779219</v>
+        <v>0.8117804332779217</v>
       </c>
       <c r="E300">
         <v>0.7999863314768494</v>
@@ -5474,10 +5474,10 @@
         <v>0.8383558769587846</v>
       </c>
       <c r="C301">
-        <v>0.8989943270105479</v>
+        <v>0.8989943270105477</v>
       </c>
       <c r="D301">
-        <v>0.9679775313315034</v>
+        <v>0.9679775313315032</v>
       </c>
       <c r="E301">
         <v>0.916400399282391</v>
@@ -5528,10 +5528,10 @@
         <v>0.8111622183955228</v>
       </c>
       <c r="D304">
-        <v>0.8909855507965876</v>
+        <v>0.8909855507965874</v>
       </c>
       <c r="E304">
-        <v>0.8576201633022795</v>
+        <v>0.8576201633022794</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5539,16 +5539,16 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.75783528455469</v>
+        <v>0.7578352845546902</v>
       </c>
       <c r="C305">
         <v>0.8111622183955228</v>
       </c>
       <c r="D305">
-        <v>0.8909855507965876</v>
+        <v>0.8909855507965874</v>
       </c>
       <c r="E305">
-        <v>0.8576201633022795</v>
+        <v>0.8576201633022794</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5556,7 +5556,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.7493755234766039</v>
+        <v>0.749375523476604</v>
       </c>
       <c r="C306">
         <v>0.7731642670848349</v>
@@ -5565,7 +5565,7 @@
         <v>0.8408982075343502</v>
       </c>
       <c r="E306">
-        <v>0.8173683236318934</v>
+        <v>0.8173683236318933</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5579,10 +5579,10 @@
         <v>0.8111622183955228</v>
       </c>
       <c r="D307">
-        <v>0.8909855507965876</v>
+        <v>0.8909855507965874</v>
       </c>
       <c r="E307">
-        <v>0.8576201633022795</v>
+        <v>0.8576201633022794</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5593,10 +5593,10 @@
         <v>0.8350319018042293</v>
       </c>
       <c r="C308">
-        <v>0.9172365332821141</v>
+        <v>0.9172365332821142</v>
       </c>
       <c r="D308">
-        <v>0.9666547012232866</v>
+        <v>0.9666547012232863</v>
       </c>
       <c r="E308">
         <v>0.9222722551024088</v>
@@ -5607,7 +5607,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.749375523476604</v>
+        <v>0.7493755234766042</v>
       </c>
       <c r="C309">
         <v>0.7731642670848349</v>
@@ -5627,13 +5627,13 @@
         <v>0.8695671580221876</v>
       </c>
       <c r="C310">
-        <v>0.9794868123926799</v>
+        <v>0.9794868123926798</v>
       </c>
       <c r="D310">
         <v>1.02658320508454</v>
       </c>
       <c r="E310">
-        <v>0.9611775061466515</v>
+        <v>0.9611775061466517</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.5707474595393682</v>
+        <v>0.5707474595393683</v>
       </c>
       <c r="C311">
-        <v>0.6304954147338251</v>
+        <v>0.6304954147338249</v>
       </c>
       <c r="D311">
         <v>0.7539602704630448</v>
       </c>
       <c r="E311">
-        <v>0.7761728026761856</v>
+        <v>0.7761728026761854</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5661,7 +5661,7 @@
         <v>0.5510171621192093</v>
       </c>
       <c r="C312">
-        <v>0.541393248144127</v>
+        <v>0.5413932481441268</v>
       </c>
       <c r="D312">
         <v>0.5783827885654412</v>
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.5707474595393683</v>
+        <v>0.5707474595393685</v>
       </c>
       <c r="C313">
-        <v>0.630495414733825</v>
+        <v>0.6304954147338248</v>
       </c>
       <c r="D313">
         <v>0.7539602704630448</v>
       </c>
       <c r="E313">
-        <v>0.7761728026761856</v>
+        <v>0.7761728026761854</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.5707474595393682</v>
+        <v>0.5707474595393683</v>
       </c>
       <c r="C314">
-        <v>0.630495414733825</v>
+        <v>0.6304954147338249</v>
       </c>
       <c r="D314">
-        <v>0.7539602704630449</v>
+        <v>0.7539602704630448</v>
       </c>
       <c r="E314">
-        <v>0.7761728026761855</v>
+        <v>0.7761728026761854</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>1.079306660712543</v>
       </c>
       <c r="E316">
-        <v>0.9721906173548414</v>
+        <v>0.9721906173548412</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5763,13 +5763,13 @@
         <v>1.033472412755854</v>
       </c>
       <c r="C318">
-        <v>1.050283602378748</v>
+        <v>1.050283602378747</v>
       </c>
       <c r="D318">
         <v>1.032792160122494</v>
       </c>
       <c r="E318">
-        <v>0.9456965246823344</v>
+        <v>0.9456965246823343</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.9683151057291677</v>
+        <v>0.9683151057291678</v>
       </c>
       <c r="C319">
         <v>0.9800816457057</v>
@@ -5786,7 +5786,7 @@
         <v>0.9710177392297226</v>
       </c>
       <c r="E319">
-        <v>0.8978983926093378</v>
+        <v>0.8978983926093377</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5797,13 +5797,13 @@
         <v>0.9896149845743546</v>
       </c>
       <c r="C320">
-        <v>0.9977007712926135</v>
+        <v>0.9977007712926137</v>
       </c>
       <c r="D320">
-        <v>0.9902179112610635</v>
+        <v>0.9902179112610634</v>
       </c>
       <c r="E320">
-        <v>0.916312680083356</v>
+        <v>0.9163126800833559</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5848,10 +5848,10 @@
         <v>0.9762115751218053</v>
       </c>
       <c r="C323">
-        <v>0.9805667407668477</v>
+        <v>0.9805667407668476</v>
       </c>
       <c r="D323">
-        <v>0.97728678319045</v>
+        <v>0.9772867831904499</v>
       </c>
       <c r="E323">
         <v>0.9069990422047488</v>
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.9762115751218053</v>
+        <v>0.9762115751218055</v>
       </c>
       <c r="C324">
         <v>0.9805667407668477</v>
       </c>
       <c r="D324">
-        <v>0.97728678319045</v>
+        <v>0.9772867831904501</v>
       </c>
       <c r="E324">
-        <v>0.906999042204749</v>
+        <v>0.9069990422047489</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.9762115751218051</v>
+        <v>0.9762115751218052</v>
       </c>
       <c r="C325">
         <v>0.9805667407668477</v>
       </c>
       <c r="D325">
-        <v>0.97728678319045</v>
+        <v>0.9772867831904501</v>
       </c>
       <c r="E325">
-        <v>0.906999042204749</v>
+        <v>0.9069990422047489</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5916,7 +5916,7 @@
         <v>1.126832851723431</v>
       </c>
       <c r="C327">
-        <v>1.211391011936096</v>
+        <v>1.211391011936095</v>
       </c>
       <c r="D327">
         <v>1.146115809431366</v>
@@ -5956,7 +5956,7 @@
         <v>1.159721793336888</v>
       </c>
       <c r="E329">
-        <v>1.020166827980207</v>
+        <v>1.020166827980206</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6001,7 +6001,7 @@
         <v>1.128016284539219</v>
       </c>
       <c r="C332">
-        <v>1.250329195557086</v>
+        <v>1.250329195557085</v>
       </c>
       <c r="D332">
         <v>1.205997309631092</v>
@@ -6015,7 +6015,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>1.014122033716848</v>
+        <v>1.014122033716849</v>
       </c>
       <c r="C333">
         <v>1.121013986984053</v>
@@ -6083,16 +6083,16 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.5197592916574197</v>
+        <v>0.5197592916574196</v>
       </c>
       <c r="C337">
-        <v>0.4886410994724353</v>
+        <v>0.4886410994724354</v>
       </c>
       <c r="D337">
         <v>0.5848878131297837</v>
       </c>
       <c r="E337">
-        <v>0.6100255590934658</v>
+        <v>0.6100255590934657</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6103,7 +6103,7 @@
         <v>0.487466192021037</v>
       </c>
       <c r="C338">
-        <v>0.4674473925019292</v>
+        <v>0.4674473925019293</v>
       </c>
       <c r="D338">
         <v>0.570650009158668</v>
@@ -6117,16 +6117,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.5197592916574199</v>
+        <v>0.5197592916574197</v>
       </c>
       <c r="C339">
-        <v>0.4886410994724353</v>
+        <v>0.4886410994724354</v>
       </c>
       <c r="D339">
         <v>0.5848878131297837</v>
       </c>
       <c r="E339">
-        <v>0.6100255590934658</v>
+        <v>0.6100255590934657</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6174,7 +6174,7 @@
         <v>0.5717710022963154</v>
       </c>
       <c r="D342">
-        <v>0.7024135512118844</v>
+        <v>0.7024135512118845</v>
       </c>
       <c r="E342">
         <v>0.7304202326067559</v>
@@ -6191,7 +6191,7 @@
         <v>0.5717710022963154</v>
       </c>
       <c r="D343">
-        <v>0.7024135512118844</v>
+        <v>0.7024135512118846</v>
       </c>
       <c r="E343">
         <v>0.730420232606756</v>
@@ -6222,13 +6222,13 @@
         <v>0.3875286022178899</v>
       </c>
       <c r="C345">
-        <v>0.4072667861542904</v>
+        <v>0.4072667861542905</v>
       </c>
       <c r="D345">
         <v>0.5446672385599716</v>
       </c>
       <c r="E345">
-        <v>0.586138031861721</v>
+        <v>0.5861380318617211</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6239,13 +6239,13 @@
         <v>0.3875286022178899</v>
       </c>
       <c r="C346">
-        <v>0.4072667861542904</v>
+        <v>0.4072667861542905</v>
       </c>
       <c r="D346">
         <v>0.5446672385599716</v>
       </c>
       <c r="E346">
-        <v>0.586138031861721</v>
+        <v>0.5861380318617211</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6262,7 +6262,7 @@
         <v>0.5446672385599716</v>
       </c>
       <c r="E347">
-        <v>0.586138031861721</v>
+        <v>0.5861380318617209</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6273,13 +6273,13 @@
         <v>0.6377262238831637</v>
       </c>
       <c r="C348">
-        <v>0.5942950964595138</v>
+        <v>0.5942950964595137</v>
       </c>
       <c r="D348">
         <v>0.6729718378910067</v>
       </c>
       <c r="E348">
-        <v>0.6901927016901328</v>
+        <v>0.6901927016901327</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6290,13 +6290,13 @@
         <v>0.6377262238831637</v>
       </c>
       <c r="C349">
-        <v>0.5942950964595139</v>
+        <v>0.5942950964595138</v>
       </c>
       <c r="D349">
         <v>0.6729718378910067</v>
       </c>
       <c r="E349">
-        <v>0.6901927016901328</v>
+        <v>0.6901927016901326</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,13 +6304,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>0.6377262238831637</v>
+        <v>0.6377262238831636</v>
       </c>
       <c r="C350">
-        <v>0.5942950964595139</v>
+        <v>0.5942950964595138</v>
       </c>
       <c r="D350">
-        <v>0.6729718378910067</v>
+        <v>0.6729718378910066</v>
       </c>
       <c r="E350">
         <v>0.6901927016901328</v>
@@ -6347,7 +6347,7 @@
         <v>0.5131759574118684</v>
       </c>
       <c r="E352">
-        <v>0.539815685799198</v>
+        <v>0.5398156857991979</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,16 +6355,16 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.8145214716859158</v>
+        <v>0.8145214716859157</v>
       </c>
       <c r="C353">
         <v>0.7424859695859876</v>
       </c>
       <c r="D353">
-        <v>0.8199196330127276</v>
+        <v>0.8199196330127279</v>
       </c>
       <c r="E353">
-        <v>0.8307670518575559</v>
+        <v>0.8307670518575558</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.7459802441966173</v>
+        <v>0.7459802441966175</v>
       </c>
       <c r="C354">
         <v>0.6601781871116478</v>
@@ -6398,7 +6398,7 @@
         <v>0.8465154400619456</v>
       </c>
       <c r="E355">
-        <v>0.842195709813527</v>
+        <v>0.8421957098135269</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6412,7 +6412,7 @@
         <v>0.6119861937641967</v>
       </c>
       <c r="D356">
-        <v>0.670654814884233</v>
+        <v>0.6706548148842331</v>
       </c>
       <c r="E356">
         <v>0.6903757309504583</v>
@@ -6426,7 +6426,7 @@
         <v>0.6693212099982585</v>
       </c>
       <c r="C357">
-        <v>0.6119861937641967</v>
+        <v>0.6119861937641968</v>
       </c>
       <c r="D357">
         <v>0.6706548148842331</v>
@@ -6443,7 +6443,7 @@
         <v>0.6693212099982585</v>
       </c>
       <c r="C358">
-        <v>0.6119861937641967</v>
+        <v>0.6119861937641968</v>
       </c>
       <c r="D358">
         <v>0.6706548148842331</v>
@@ -6460,10 +6460,10 @@
         <v>0.390025285033634</v>
       </c>
       <c r="C359">
-        <v>0.4177179311220415</v>
+        <v>0.4177179311220414</v>
       </c>
       <c r="D359">
-        <v>0.5365651942134786</v>
+        <v>0.5365651942134787</v>
       </c>
       <c r="E359">
         <v>0.5625670303600466</v>
@@ -6494,7 +6494,7 @@
         <v>0.8189639237760009</v>
       </c>
       <c r="C361">
-        <v>0.9752009779294144</v>
+        <v>0.9752009779294141</v>
       </c>
       <c r="D361">
         <v>1.085690285041108</v>
@@ -6528,13 +6528,13 @@
         <v>0.71892917882133</v>
       </c>
       <c r="C363">
-        <v>0.8627594493804397</v>
+        <v>0.8627594493804395</v>
       </c>
       <c r="D363">
         <v>1.020637739185216</v>
       </c>
       <c r="E363">
-        <v>0.9761373720551454</v>
+        <v>0.9761373720551453</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6548,7 +6548,7 @@
         <v>1.009943969445136</v>
       </c>
       <c r="D364">
-        <v>1.085165706214654</v>
+        <v>1.085165706214653</v>
       </c>
       <c r="E364">
         <v>1.008838877332068</v>
@@ -6579,13 +6579,13 @@
         <v>0.7745959349741166</v>
       </c>
       <c r="C366">
-        <v>0.8647209128319994</v>
+        <v>0.8647209128319991</v>
       </c>
       <c r="D366">
         <v>0.9880221071083499</v>
       </c>
       <c r="E366">
-        <v>0.9532055193737002</v>
+        <v>0.9532055193737</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6596,7 +6596,7 @@
         <v>0.7745959349741167</v>
       </c>
       <c r="C367">
-        <v>0.8647209128319993</v>
+        <v>0.8647209128319991</v>
       </c>
       <c r="D367">
         <v>0.98802210710835</v>
@@ -6613,7 +6613,7 @@
         <v>0.8425629140167781</v>
       </c>
       <c r="C368">
-        <v>0.8982147322188825</v>
+        <v>0.8982147322188824</v>
       </c>
       <c r="D368">
         <v>1.002671555796999</v>
@@ -6633,10 +6633,10 @@
         <v>0.8647209128319991</v>
       </c>
       <c r="D369">
-        <v>0.9880221071083499</v>
+        <v>0.9880221071083498</v>
       </c>
       <c r="E369">
-        <v>0.9532055193737001</v>
+        <v>0.9532055193737</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6644,13 +6644,13 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.6899056817115959</v>
+        <v>0.6899056817115962</v>
       </c>
       <c r="C370">
-        <v>0.7587508417958481</v>
+        <v>0.758750841795848</v>
       </c>
       <c r="D370">
-        <v>0.9168281450387862</v>
+        <v>0.9168281450387861</v>
       </c>
       <c r="E370">
         <v>0.9118263660990596</v>
@@ -6661,13 +6661,13 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.6899056817115959</v>
+        <v>0.6899056817115961</v>
       </c>
       <c r="C371">
-        <v>0.7587508417958481</v>
+        <v>0.758750841795848</v>
       </c>
       <c r="D371">
-        <v>0.9168281450387862</v>
+        <v>0.916828145038786</v>
       </c>
       <c r="E371">
         <v>0.9118263660990596</v>
@@ -6678,16 +6678,16 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.6899056817115959</v>
+        <v>0.6899056817115961</v>
       </c>
       <c r="C372">
-        <v>0.7587508417958481</v>
+        <v>0.758750841795848</v>
       </c>
       <c r="D372">
         <v>0.9168281450387862</v>
       </c>
       <c r="E372">
-        <v>0.9118263660990595</v>
+        <v>0.9118263660990596</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,10 +6695,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.751143698414905</v>
+        <v>0.7511436984149051</v>
       </c>
       <c r="C373">
-        <v>0.7992107797882844</v>
+        <v>0.7992107797882843</v>
       </c>
       <c r="D373">
         <v>0.9181994694126548</v>
@@ -6715,10 +6715,10 @@
         <v>0.6300434696501929</v>
       </c>
       <c r="C374">
-        <v>0.6417347744607552</v>
+        <v>0.6417347744607551</v>
       </c>
       <c r="D374">
-        <v>0.788362718384463</v>
+        <v>0.7883627183844631</v>
       </c>
       <c r="E374">
         <v>0.8140728983040018</v>
@@ -6729,16 +6729,16 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.7722928098711984</v>
+        <v>0.7722928098711985</v>
       </c>
       <c r="C375">
-        <v>0.8233142801913639</v>
+        <v>0.8233142801913637</v>
       </c>
       <c r="D375">
         <v>0.9469849013721978</v>
       </c>
       <c r="E375">
-        <v>0.9014915544772932</v>
+        <v>0.9014915544772931</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0.6742210257197799</v>
       </c>
       <c r="D376">
-        <v>0.8302369960992895</v>
+        <v>0.8302369960992896</v>
       </c>
       <c r="E376">
         <v>0.8372388136000846</v>
@@ -6766,7 +6766,7 @@
         <v>0.6598500640914696</v>
       </c>
       <c r="C377">
-        <v>0.6742210257197798</v>
+        <v>0.6742210257197799</v>
       </c>
       <c r="D377">
         <v>0.8302369960992897</v>
@@ -6780,7 +6780,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.8838647368635444</v>
+        <v>0.8838647368635446</v>
       </c>
       <c r="C378">
         <v>0.9278624780136355</v>
@@ -6789,7 +6789,7 @@
         <v>1.003552774630096</v>
       </c>
       <c r="E378">
-        <v>0.9458889342085951</v>
+        <v>0.945888934208595</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,7 +6797,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.8838647368635444</v>
+        <v>0.8838647368635446</v>
       </c>
       <c r="C379">
         <v>0.9278624780136355</v>
@@ -6823,7 +6823,7 @@
         <v>1.034457900086812</v>
       </c>
       <c r="E380">
-        <v>0.9566525797655913</v>
+        <v>0.9566525797655911</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>1.034457900086812</v>
       </c>
       <c r="E381">
-        <v>0.9566525797655913</v>
+        <v>0.9566525797655911</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6848,13 +6848,13 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.817363400764702</v>
+        <v>0.8173634007647019</v>
       </c>
       <c r="C382">
         <v>0.8486687977626181</v>
       </c>
       <c r="D382">
-        <v>0.9634071328157534</v>
+        <v>0.9634071328157533</v>
       </c>
       <c r="E382">
         <v>0.9181112991966072</v>
@@ -6868,7 +6868,7 @@
         <v>0.846806425295238</v>
       </c>
       <c r="C383">
-        <v>0.9554256002589835</v>
+        <v>0.9554256002589834</v>
       </c>
       <c r="D383">
         <v>1.057400155176986</v>
@@ -6891,7 +6891,7 @@
         <v>0.97275180754888</v>
       </c>
       <c r="E384">
-        <v>0.9261632469122522</v>
+        <v>0.9261632469122519</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6919,7 +6919,7 @@
         <v>0.5887158489032653</v>
       </c>
       <c r="C386">
-        <v>0.701950907519532</v>
+        <v>0.7019509075195319</v>
       </c>
       <c r="D386">
         <v>0.8952981043412265</v>
@@ -6936,7 +6936,7 @@
         <v>0.5887158489032653</v>
       </c>
       <c r="C387">
-        <v>0.701950907519532</v>
+        <v>0.7019509075195319</v>
       </c>
       <c r="D387">
         <v>0.8952981043412263</v>
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.6753826115134516</v>
+        <v>0.6753826115134515</v>
       </c>
       <c r="C388">
         <v>0.5482050490178356</v>
@@ -6967,13 +6967,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.6134427273013001</v>
+        <v>0.6134427273013</v>
       </c>
       <c r="C389">
         <v>0.5100297796484389</v>
       </c>
       <c r="D389">
-        <v>0.5707251066811021</v>
+        <v>0.570725106681102</v>
       </c>
       <c r="E389">
         <v>0.6400851214182819</v>
@@ -6984,7 +6984,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>0.6134427273013001</v>
+        <v>0.6134427273012999</v>
       </c>
       <c r="C390">
         <v>0.5100297796484389</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.6753826115134517</v>
+        <v>0.6753826115134515</v>
       </c>
       <c r="C391">
         <v>0.5482050490178356</v>
@@ -7010,7 +7010,7 @@
         <v>0.5823881256726477</v>
       </c>
       <c r="E391">
-        <v>0.6424156928770935</v>
+        <v>0.6424156928770934</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.6134427273013001</v>
+        <v>0.6134427273013</v>
       </c>
       <c r="C392">
         <v>0.5100297796484389</v>
@@ -7035,13 +7035,13 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.544709416942519</v>
+        <v>0.5447094169425188</v>
       </c>
       <c r="C393">
-        <v>0.4369519800602942</v>
+        <v>0.4369519800602943</v>
       </c>
       <c r="D393">
-        <v>0.4482368518925732</v>
+        <v>0.4482368518925733</v>
       </c>
       <c r="E393">
         <v>0.4877740746195918</v>
@@ -7052,10 +7052,10 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.544709416942519</v>
+        <v>0.5447094169425188</v>
       </c>
       <c r="C394">
-        <v>0.4369519800602941</v>
+        <v>0.4369519800602943</v>
       </c>
       <c r="D394">
         <v>0.4482368518925732</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.5673662525660422</v>
+        <v>0.5673662525660421</v>
       </c>
       <c r="C395">
-        <v>0.4544587583876289</v>
+        <v>0.4544587583876291</v>
       </c>
       <c r="D395">
         <v>0.4617325297747578</v>
       </c>
       <c r="E395">
-        <v>0.4971518040991376</v>
+        <v>0.4971518040991375</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,7 +7086,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.5673662525660421</v>
+        <v>0.567366252566042</v>
       </c>
       <c r="C396">
         <v>0.454458758387629</v>
@@ -7095,7 +7095,7 @@
         <v>0.4617325297747578</v>
       </c>
       <c r="E396">
-        <v>0.4971518040991376</v>
+        <v>0.4971518040991375</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,13 +7103,13 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.6476268804607307</v>
+        <v>0.6476268804607305</v>
       </c>
       <c r="C397">
-        <v>0.5001812512446532</v>
+        <v>0.5001812512446533</v>
       </c>
       <c r="D397">
-        <v>0.5082919358232705</v>
+        <v>0.5082919358232704</v>
       </c>
       <c r="E397">
         <v>0.5481965111180166</v>
@@ -7120,13 +7120,13 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.6476268804607306</v>
+        <v>0.6476268804607305</v>
       </c>
       <c r="C398">
         <v>0.5001812512446533</v>
       </c>
       <c r="D398">
-        <v>0.5082919358232705</v>
+        <v>0.5082919358232704</v>
       </c>
       <c r="E398">
         <v>0.5481965111180167</v>
@@ -7143,7 +7143,7 @@
         <v>0.4086003537002568</v>
       </c>
       <c r="D399">
-        <v>0.5577126319067109</v>
+        <v>0.5577126319067108</v>
       </c>
       <c r="E399">
         <v>0.6742076673111937</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.4928324640718858</v>
+        <v>0.4928324640718859</v>
       </c>
       <c r="C400">
-        <v>0.4057906473823562</v>
+        <v>0.405790647382356</v>
       </c>
       <c r="D400">
         <v>0.5706975469158018</v>
       </c>
       <c r="E400">
-        <v>0.6833337041259284</v>
+        <v>0.6833337041259282</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7188,7 +7188,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>0.4904275963134707</v>
+        <v>0.4904275963134708</v>
       </c>
       <c r="C402">
         <v>0.3834136934750383</v>
@@ -7208,13 +7208,13 @@
         <v>0.4928324640718857</v>
       </c>
       <c r="C403">
-        <v>0.4057906473823561</v>
+        <v>0.405790647382356</v>
       </c>
       <c r="D403">
         <v>0.5706975469158018</v>
       </c>
       <c r="E403">
-        <v>0.6833337041259284</v>
+        <v>0.6833337041259282</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,16 +7222,16 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.458206435220518</v>
+        <v>0.4582064352205181</v>
       </c>
       <c r="C404">
-        <v>0.3634713349426375</v>
+        <v>0.3634713349426374</v>
       </c>
       <c r="D404">
         <v>0.5109027171545668</v>
       </c>
       <c r="E404">
-        <v>0.6251039672927509</v>
+        <v>0.6251039672927506</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7239,16 +7239,16 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.458206435220518</v>
+        <v>0.4582064352205181</v>
       </c>
       <c r="C405">
-        <v>0.3634713349426375</v>
+        <v>0.3634713349426374</v>
       </c>
       <c r="D405">
         <v>0.5109027171545668</v>
       </c>
       <c r="E405">
-        <v>0.6251039672927509</v>
+        <v>0.6251039672927508</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7256,7 +7256,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.458206435220518</v>
+        <v>0.4582064352205181</v>
       </c>
       <c r="C406">
         <v>0.3634713349426375</v>
@@ -7265,7 +7265,7 @@
         <v>0.5109027171545668</v>
       </c>
       <c r="E406">
-        <v>0.6251039672927509</v>
+        <v>0.6251039672927508</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,7 +7273,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>0.4261373538628712</v>
+        <v>0.4261373538628713</v>
       </c>
       <c r="C407">
         <v>0.3297558978549406</v>
@@ -7290,13 +7290,13 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.4261373538628712</v>
+        <v>0.4261373538628713</v>
       </c>
       <c r="C408">
         <v>0.3297558978549406</v>
       </c>
       <c r="D408">
-        <v>0.4679653305837687</v>
+        <v>0.4679653305837686</v>
       </c>
       <c r="E408">
         <v>0.5834583881953801</v>
@@ -7313,7 +7313,7 @@
         <v>0.3297558978549406</v>
       </c>
       <c r="D409">
-        <v>0.4679653305837688</v>
+        <v>0.4679653305837687</v>
       </c>
       <c r="E409">
         <v>0.5834583881953802</v>
@@ -7327,7 +7327,7 @@
         <v>0.7463564786111113</v>
       </c>
       <c r="C410">
-        <v>0.7471445111379876</v>
+        <v>0.7471445111379875</v>
       </c>
       <c r="D410">
         <v>0.8819398714921423</v>
@@ -7344,10 +7344,10 @@
         <v>0.6812144464551743</v>
       </c>
       <c r="C411">
-        <v>0.6619341541992858</v>
+        <v>0.6619341541992857</v>
       </c>
       <c r="D411">
-        <v>0.823143479223497</v>
+        <v>0.8231434792234968</v>
       </c>
       <c r="E411">
         <v>0.8662337897987242</v>
@@ -7361,7 +7361,7 @@
         <v>0.6812144464551743</v>
       </c>
       <c r="C412">
-        <v>0.6619341541992858</v>
+        <v>0.6619341541992857</v>
       </c>
       <c r="D412">
         <v>0.8231434792234968</v>
@@ -7401,7 +7401,7 @@
         <v>0.9145859967388741</v>
       </c>
       <c r="E414">
-        <v>0.9200539519749724</v>
+        <v>0.9200539519749722</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7412,13 +7412,13 @@
         <v>0.6827275559570528</v>
       </c>
       <c r="C415">
-        <v>0.6684012513214487</v>
+        <v>0.6684012513214486</v>
       </c>
       <c r="D415">
         <v>0.8356945305196856</v>
       </c>
       <c r="E415">
-        <v>0.8756453493535979</v>
+        <v>0.8756453493535978</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,7 +7426,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.6827275559570528</v>
+        <v>0.6827275559570529</v>
       </c>
       <c r="C416">
         <v>0.6684012513214486</v>
@@ -7435,7 +7435,7 @@
         <v>0.8356945305196856</v>
       </c>
       <c r="E416">
-        <v>0.8756453493535979</v>
+        <v>0.8756453493535977</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,13 +7446,13 @@
         <v>0.5866385763789309</v>
       </c>
       <c r="C417">
-        <v>0.5255620483184079</v>
+        <v>0.5255620483184078</v>
       </c>
       <c r="D417">
         <v>0.6928193332807671</v>
       </c>
       <c r="E417">
-        <v>0.7732534388207962</v>
+        <v>0.7732534388207961</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,13 +7463,13 @@
         <v>0.586638576378931</v>
       </c>
       <c r="C418">
-        <v>0.5255620483184079</v>
+        <v>0.5255620483184078</v>
       </c>
       <c r="D418">
         <v>0.6928193332807671</v>
       </c>
       <c r="E418">
-        <v>0.7732534388207962</v>
+        <v>0.7732534388207961</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7483,10 +7483,10 @@
         <v>0.6854059330597981</v>
       </c>
       <c r="D419">
-        <v>0.7681542713626514</v>
+        <v>0.7681542713626512</v>
       </c>
       <c r="E419">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7503,7 +7503,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E420">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7534,7 +7534,7 @@
         <v>0.5762913227387808</v>
       </c>
       <c r="D422">
-        <v>0.6507726354256357</v>
+        <v>0.6507726354256355</v>
       </c>
       <c r="E422">
         <v>0.680790641665294</v>
@@ -7554,7 +7554,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E423">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E424">
-        <v>0.7910245728815078</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,13 +7579,13 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.6206630285939774</v>
+        <v>0.6206630285939775</v>
       </c>
       <c r="C425">
         <v>0.5762913227387809</v>
       </c>
       <c r="D425">
-        <v>0.6507726354256358</v>
+        <v>0.6507726354256356</v>
       </c>
       <c r="E425">
         <v>0.680790641665294</v>
@@ -7605,7 +7605,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E426">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>0.708061483282331</v>
       </c>
       <c r="C427">
-        <v>0.7083779570078986</v>
+        <v>0.7083779570078987</v>
       </c>
       <c r="D427">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673834</v>
       </c>
       <c r="E427">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498022</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>0.708061483282331</v>
       </c>
       <c r="C428">
-        <v>0.7083779570078985</v>
+        <v>0.7083779570078986</v>
       </c>
       <c r="D428">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673834</v>
       </c>
       <c r="E428">
-        <v>0.8023776574498022</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7656,7 +7656,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E429">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7670,7 +7670,7 @@
         <v>0.6854059330597982</v>
       </c>
       <c r="D430">
-        <v>0.7681542713626514</v>
+        <v>0.7681542713626512</v>
       </c>
       <c r="E430">
         <v>0.791024572881508</v>
@@ -7681,13 +7681,13 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.6206630285939774</v>
+        <v>0.6206630285939775</v>
       </c>
       <c r="C431">
         <v>0.5762913227387809</v>
       </c>
       <c r="D431">
-        <v>0.6507726354256356</v>
+        <v>0.6507726354256355</v>
       </c>
       <c r="E431">
         <v>0.6807906416652941</v>
@@ -7704,10 +7704,10 @@
         <v>0.6854059330597982</v>
       </c>
       <c r="D432">
-        <v>0.7681542713626514</v>
+        <v>0.7681542713626512</v>
       </c>
       <c r="E432">
-        <v>0.7910245728815078</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7724,7 +7724,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E433">
-        <v>0.791024572881508</v>
+        <v>0.7910245728815078</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7758,7 +7758,7 @@
         <v>0.7681542713626512</v>
       </c>
       <c r="E435">
-        <v>0.7910245728815078</v>
+        <v>0.7910245728815077</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7800,10 +7800,10 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.4615898386433078</v>
+        <v>0.4615898386433079</v>
       </c>
       <c r="C438">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D438">
         <v>0.5390926841975962</v>
@@ -7820,7 +7820,7 @@
         <v>0.4615898386433079</v>
       </c>
       <c r="C439">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D439">
         <v>0.5390926841975962</v>
@@ -7834,10 +7834,10 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.4615898386433077</v>
+        <v>0.4615898386433078</v>
       </c>
       <c r="C440">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D440">
         <v>0.5390926841975962</v>
@@ -7877,7 +7877,7 @@
         <v>0.5082914552451262</v>
       </c>
       <c r="E442">
-        <v>0.5439299364604984</v>
+        <v>0.5439299364604983</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7885,10 +7885,10 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>0.4615898386433078</v>
+        <v>0.4615898386433079</v>
       </c>
       <c r="C443">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D443">
         <v>0.5390926841975962</v>
@@ -7922,7 +7922,7 @@
         <v>0.4615898386433078</v>
       </c>
       <c r="C445">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D445">
         <v>0.5390926841975962</v>
@@ -7939,7 +7939,7 @@
         <v>0.4615898386433079</v>
       </c>
       <c r="C446">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D446">
         <v>0.5390926841975962</v>
@@ -7956,7 +7956,7 @@
         <v>0.4615898386433078</v>
       </c>
       <c r="C447">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D447">
         <v>0.5390926841975962</v>
@@ -7973,13 +7973,13 @@
         <v>0.8225099575299957</v>
       </c>
       <c r="C448">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D448">
-        <v>0.9019444484045612</v>
+        <v>0.901944448404561</v>
       </c>
       <c r="E448">
-        <v>0.8716470522533695</v>
+        <v>0.8716470522533694</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,13 +7987,13 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.8225099575299956</v>
+        <v>0.8225099575299957</v>
       </c>
       <c r="C449">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D449">
-        <v>0.9019444484045612</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E449">
         <v>0.8716470522533694</v>
@@ -8007,10 +8007,10 @@
         <v>0.8225099575299957</v>
       </c>
       <c r="C450">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D450">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E450">
         <v>0.8716470522533694</v>
@@ -8021,13 +8021,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.8225099575299956</v>
+        <v>0.8225099575299958</v>
       </c>
       <c r="C451">
-        <v>0.8382633211899693</v>
+        <v>0.8382633211899694</v>
       </c>
       <c r="D451">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E451">
         <v>0.8716470522533694</v>
@@ -8041,13 +8041,13 @@
         <v>0.8225099575299958</v>
       </c>
       <c r="C452">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D452">
-        <v>0.9019444484045612</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E452">
-        <v>0.8716470522533696</v>
+        <v>0.8716470522533694</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8055,16 +8055,16 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>0.8225099575299957</v>
+        <v>0.8225099575299958</v>
       </c>
       <c r="C453">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D453">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E453">
-        <v>0.8716470522533695</v>
+        <v>0.8716470522533694</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,16 +8072,16 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C454">
-        <v>0.7281922969364018</v>
+        <v>0.7281922969364015</v>
       </c>
       <c r="D454">
         <v>0.8414451814482344</v>
       </c>
       <c r="E454">
-        <v>0.8391571763922817</v>
+        <v>0.8391571763922816</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,16 +8089,16 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C455">
         <v>0.7281922969364015</v>
       </c>
       <c r="D455">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482342</v>
       </c>
       <c r="E455">
-        <v>0.8391571763922816</v>
+        <v>0.8391571763922814</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,13 +8106,13 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>0.6857902605931275</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C456">
         <v>0.7281922969364015</v>
       </c>
       <c r="D456">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
       <c r="E456">
         <v>0.8391571763922816</v>
@@ -8123,16 +8123,16 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C457">
-        <v>0.7281922969364015</v>
+        <v>0.7281922969364013</v>
       </c>
       <c r="D457">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
       <c r="E457">
-        <v>0.8391571763922816</v>
+        <v>0.8391571763922814</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,13 +8140,13 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C458">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
       <c r="D458">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
       <c r="E458">
         <v>0.8391571763922816</v>
@@ -8157,16 +8157,16 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.6857902605931275</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C459">
-        <v>0.7281922969364015</v>
+        <v>0.7281922969364013</v>
       </c>
       <c r="D459">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
       <c r="E459">
-        <v>0.8391571763922816</v>
+        <v>0.8391571763922814</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8174,13 +8174,13 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C460">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
       <c r="D460">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482342</v>
       </c>
       <c r="E460">
         <v>0.8391571763922816</v>
@@ -8191,13 +8191,13 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>0.6857902605931275</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C461">
         <v>0.7281922969364015</v>
       </c>
       <c r="D461">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482342</v>
       </c>
       <c r="E461">
         <v>0.8391571763922816</v>
@@ -8208,16 +8208,16 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C462">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
       <c r="D462">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
       <c r="E462">
-        <v>0.8391571763922817</v>
+        <v>0.8391571763922816</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8231,10 +8231,10 @@
         <v>0.7083779570078985</v>
       </c>
       <c r="D463">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673834</v>
       </c>
       <c r="E463">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8245,13 +8245,13 @@
         <v>0.708061483282331</v>
       </c>
       <c r="C464">
-        <v>0.7083779570078986</v>
+        <v>0.7083779570078987</v>
       </c>
       <c r="D464">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673833</v>
       </c>
       <c r="E464">
-        <v>0.8023776574498022</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8279,7 +8279,7 @@
         <v>0.5749964132359504</v>
       </c>
       <c r="C466">
-        <v>0.5562203809870583</v>
+        <v>0.5562203809870584</v>
       </c>
       <c r="D466">
         <v>0.653090163915783</v>
@@ -8299,10 +8299,10 @@
         <v>0.7083779570078987</v>
       </c>
       <c r="D467">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673833</v>
       </c>
       <c r="E467">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498021</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,13 +8310,13 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.8225099575299957</v>
+        <v>0.8225099575299958</v>
       </c>
       <c r="C468">
         <v>0.8382633211899693</v>
       </c>
       <c r="D468">
-        <v>0.9019444484045612</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E468">
         <v>0.8716470522533694</v>
@@ -8330,10 +8330,10 @@
         <v>0.8225099575299958</v>
       </c>
       <c r="C469">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D469">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E469">
         <v>0.8716470522533694</v>
@@ -8347,10 +8347,10 @@
         <v>0.8225099575299957</v>
       </c>
       <c r="C470">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
       <c r="D470">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
       <c r="E470">
         <v>0.8716470522533695</v>
@@ -8367,10 +8367,10 @@
         <v>0.7083779570078986</v>
       </c>
       <c r="D471">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673833</v>
       </c>
       <c r="E471">
-        <v>0.8023776574498023</v>
+        <v>0.8023776574498022</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,16 +8378,16 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
       <c r="C472">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
       <c r="D472">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
       <c r="E472">
-        <v>0.8391571763922817</v>
+        <v>0.8391571763922816</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8415,7 +8415,7 @@
         <v>0.5749964132359505</v>
       </c>
       <c r="C474">
-        <v>0.5562203809870583</v>
+        <v>0.5562203809870584</v>
       </c>
       <c r="D474">
         <v>0.6530901639157831</v>
@@ -8438,7 +8438,7 @@
         <v>0.6662789951898884</v>
       </c>
       <c r="E475">
-        <v>0.6987637237778681</v>
+        <v>0.698763723777868</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8452,7 +8452,7 @@
         <v>0.486634451814781</v>
       </c>
       <c r="D476">
-        <v>0.6366043960370809</v>
+        <v>0.6366043960370807</v>
       </c>
       <c r="E476">
         <v>0.6841321657161318</v>
@@ -8463,13 +8463,13 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>0.4607985014093475</v>
+        <v>0.4607985014093474</v>
       </c>
       <c r="C477">
         <v>0.486634451814781</v>
       </c>
       <c r="D477">
-        <v>0.6366043960370809</v>
+        <v>0.6366043960370807</v>
       </c>
       <c r="E477">
         <v>0.6841321657161318</v>
@@ -8480,7 +8480,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
       <c r="C478">
         <v>0.5899964828719462</v>
@@ -8497,7 +8497,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.744694767504904</v>
+        <v>0.7446947675049038</v>
       </c>
       <c r="C479">
         <v>0.6282525050473384</v>
@@ -8520,7 +8520,7 @@
         <v>0.6693512514818235</v>
       </c>
       <c r="D480">
-        <v>0.7200373787668389</v>
+        <v>0.7200373787668388</v>
       </c>
       <c r="E480">
         <v>0.7588248261364485</v>
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
       <c r="C481">
         <v>0.5899964828719463</v>
@@ -8548,10 +8548,10 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
       <c r="C482">
-        <v>0.5899964828719462</v>
+        <v>0.5899964828719463</v>
       </c>
       <c r="D482">
         <v>0.6119945479208888</v>
@@ -8565,10 +8565,10 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
       <c r="C483">
-        <v>0.5899964828719462</v>
+        <v>0.5899964828719463</v>
       </c>
       <c r="D483">
         <v>0.6119945479208888</v>
@@ -8605,10 +8605,10 @@
         <v>0.6693512514818234</v>
       </c>
       <c r="D485">
-        <v>0.7200373787668389</v>
+        <v>0.7200373787668388</v>
       </c>
       <c r="E485">
-        <v>0.7588248261364485</v>
+        <v>0.7588248261364484</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>0.7654523516937584</v>
+        <v>0.7654523516937582</v>
       </c>
       <c r="C486">
-        <v>0.6540213234876835</v>
+        <v>0.6540213234876837</v>
       </c>
       <c r="D486">
-        <v>0.704430136522544</v>
+        <v>0.7044301365225439</v>
       </c>
       <c r="E486">
         <v>0.7466494750131597</v>
@@ -8633,7 +8633,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.7512032405118554</v>
+        <v>0.7512032405118553</v>
       </c>
       <c r="C487">
         <v>0.6259334450825598</v>
@@ -8642,7 +8642,7 @@
         <v>0.6661964872414777</v>
       </c>
       <c r="E487">
-        <v>0.70178674788315</v>
+        <v>0.7017867478831499</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8653,13 +8653,13 @@
         <v>0.7581905967479476</v>
       </c>
       <c r="C488">
-        <v>0.6415023064297043</v>
+        <v>0.6415023064297044</v>
       </c>
       <c r="D488">
         <v>0.6754578213871237</v>
       </c>
       <c r="E488">
-        <v>0.7035176413669281</v>
+        <v>0.703517641366928</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8673,10 +8673,10 @@
         <v>0.6415023064297044</v>
       </c>
       <c r="D489">
-        <v>0.6754578213871238</v>
+        <v>0.6754578213871237</v>
       </c>
       <c r="E489">
-        <v>0.7035176413669281</v>
+        <v>0.703517641366928</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,13 +8684,13 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.8995969509298634</v>
+        <v>0.8995969509298632</v>
       </c>
       <c r="C490">
         <v>0.837230276390701</v>
       </c>
       <c r="D490">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859445</v>
       </c>
       <c r="E490">
         <v>0.8709831916990521</v>
@@ -8707,7 +8707,7 @@
         <v>0.8642534995771883</v>
       </c>
       <c r="D491">
-        <v>0.905039753280828</v>
+        <v>0.9050397532808278</v>
       </c>
       <c r="E491">
         <v>0.8821158644498027</v>
@@ -8718,13 +8718,13 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.8995969509298635</v>
+        <v>0.8995969509298634</v>
       </c>
       <c r="C492">
         <v>0.837230276390701</v>
       </c>
       <c r="D492">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859447</v>
       </c>
       <c r="E492">
         <v>0.8709831916990523</v>
@@ -8735,16 +8735,16 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.8995969509298634</v>
+        <v>0.8995969509298632</v>
       </c>
       <c r="C493">
         <v>0.8372302763907009</v>
       </c>
       <c r="D493">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859445</v>
       </c>
       <c r="E493">
-        <v>0.8709831916990521</v>
+        <v>0.8709831916990524</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8758,7 +8758,7 @@
         <v>0.837230276390701</v>
       </c>
       <c r="D494">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859446</v>
       </c>
       <c r="E494">
         <v>0.8709831916990521</v>
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.8763441398146101</v>
+        <v>0.87634413981461</v>
       </c>
       <c r="C495">
-        <v>0.8700713587968725</v>
+        <v>0.8700713587968728</v>
       </c>
       <c r="D495">
-        <v>0.9323073533914322</v>
+        <v>0.9323073533914319</v>
       </c>
       <c r="E495">
-        <v>0.9019652086473825</v>
+        <v>0.9019652086473824</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.9408444102371724</v>
+        <v>0.9408444102371722</v>
       </c>
       <c r="C496">
         <v>0.9345028760912059</v>
       </c>
       <c r="D496">
-        <v>0.9704137352978084</v>
+        <v>0.9704137352978085</v>
       </c>
       <c r="E496">
-        <v>0.9232450511954365</v>
+        <v>0.9232450511954364</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>0.87634413981461</v>
+        <v>0.8763441398146099</v>
       </c>
       <c r="C497">
-        <v>0.8700713587968725</v>
+        <v>0.8700713587968728</v>
       </c>
       <c r="D497">
-        <v>0.9323073533914322</v>
+        <v>0.9323073533914319</v>
       </c>
       <c r="E497">
-        <v>0.9019652086473825</v>
+        <v>0.9019652086473824</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8823,13 +8823,13 @@
         <v>0.9216171659302242</v>
       </c>
       <c r="C498">
-        <v>0.8795825407783977</v>
+        <v>0.8795825407783978</v>
       </c>
       <c r="D498">
         <v>0.897402986461952</v>
       </c>
       <c r="E498">
-        <v>0.8610553414981448</v>
+        <v>0.8610553414981447</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>0.9216171659302242</v>
+        <v>0.9216171659302241</v>
       </c>
       <c r="C499">
         <v>0.8795825407783978</v>
@@ -8846,7 +8846,7 @@
         <v>0.897402986461952</v>
       </c>
       <c r="E499">
-        <v>0.8610553414981448</v>
+        <v>0.8610553414981446</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8863,7 +8863,7 @@
         <v>0.897402986461952</v>
       </c>
       <c r="E500">
-        <v>0.8610553414981448</v>
+        <v>0.8610553414981446</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.7946893933472926</v>
+        <v>0.7946893933472923</v>
       </c>
       <c r="C501">
         <v>0.6698542426792045</v>
       </c>
       <c r="D501">
-        <v>0.6944941803214265</v>
+        <v>0.6944941803214266</v>
       </c>
       <c r="E501">
-        <v>0.721233888401061</v>
+        <v>0.7212338884010608</v>
       </c>
     </row>
   </sheetData>
